--- a/OpsAndMats/Model76E.xlsx
+++ b/OpsAndMats/Model76E.xlsx
@@ -1028,6 +1028,9 @@
     <t>1162801</t>
   </si>
   <si>
+    <t>1577401</t>
+  </si>
+  <si>
     <t>1527401</t>
   </si>
   <si>
@@ -1278,9 +1281,6 @@
   </si>
   <si>
     <t>6090018</t>
-  </si>
-  <si>
-    <t>1577401</t>
   </si>
   <si>
     <t>1002801</t>
@@ -1640,6 +1640,9 @@
     <t>Nut, Acorn, 3/8-16, St. Stl.</t>
   </si>
   <si>
+    <t>Washer, Split Lock, Med, 3/8, St. Stl.</t>
+  </si>
+  <si>
     <t>Washer, AN, 3/8, St. Stl.</t>
   </si>
   <si>
@@ -1890,9 +1893,6 @@
   </si>
   <si>
     <t>ball brng., flanged, nylon retainer</t>
-  </si>
-  <si>
-    <t>Washer, Split Lock, Med, 3/8, St. Stl.</t>
   </si>
   <si>
     <t>Hex Nut, 3/8-16, St. Stl.</t>
@@ -19539,10 +19539,10 @@
         <v>266</v>
       </c>
       <c r="I204" t="s">
-        <v>173</v>
+        <v>338</v>
       </c>
       <c r="J204" t="s">
-        <v>253</v>
+        <v>542</v>
       </c>
       <c r="K204">
         <v>85</v>
@@ -19557,7 +19557,7 @@
         <v>8</v>
       </c>
       <c r="S204">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="T204" t="s">
         <v>687</v>
@@ -19622,10 +19622,10 @@
         <v>266</v>
       </c>
       <c r="I205" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J205" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K205">
         <v>86</v>
@@ -19705,10 +19705,10 @@
         <v>266</v>
       </c>
       <c r="I206" t="s">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="J206" t="s">
-        <v>543</v>
+        <v>253</v>
       </c>
       <c r="K206">
         <v>87</v>
@@ -19773,19 +19773,19 @@
     </row>
     <row r="207" spans="1:43">
       <c r="A207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B207" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E207">
         <v>10</v>
       </c>
       <c r="G207" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H207" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I207" t="s">
         <v>340</v>
@@ -19794,10 +19794,10 @@
         <v>544</v>
       </c>
       <c r="K207">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="L207">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="M207">
         <v>0</v>
@@ -19806,13 +19806,13 @@
         <v>8</v>
       </c>
       <c r="S207">
-        <v>78.875</v>
+        <v>1</v>
       </c>
       <c r="T207" t="s">
         <v>687</v>
       </c>
       <c r="U207" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V207">
         <v>0</v>
@@ -19862,13 +19862,13 @@
         <v>177</v>
       </c>
       <c r="E208">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G208" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H208" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I208" t="s">
         <v>341</v>
@@ -19889,13 +19889,13 @@
         <v>8</v>
       </c>
       <c r="S208">
-        <v>0.0625</v>
+        <v>78.875</v>
       </c>
       <c r="T208" t="s">
         <v>687</v>
       </c>
       <c r="U208" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V208">
         <v>0</v>
@@ -19939,25 +19939,25 @@
     </row>
     <row r="209" spans="1:43">
       <c r="A209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B209" t="s">
         <v>177</v>
       </c>
       <c r="E209">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G209" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H209" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I209" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J209" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K209">
         <v>1</v>
@@ -19972,13 +19972,13 @@
         <v>8</v>
       </c>
       <c r="S209">
-        <v>78.875</v>
+        <v>0.0625</v>
       </c>
       <c r="T209" t="s">
         <v>687</v>
       </c>
       <c r="U209" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -20028,13 +20028,13 @@
         <v>177</v>
       </c>
       <c r="E210">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H210" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I210" t="s">
         <v>341</v>
@@ -20055,13 +20055,13 @@
         <v>8</v>
       </c>
       <c r="S210">
-        <v>0.0625</v>
+        <v>78.875</v>
       </c>
       <c r="T210" t="s">
         <v>687</v>
       </c>
       <c r="U210" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V210">
         <v>0</v>
@@ -20105,25 +20105,25 @@
     </row>
     <row r="211" spans="1:43">
       <c r="A211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B211" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E211">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G211" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H211" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I211" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J211" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -20138,13 +20138,13 @@
         <v>8</v>
       </c>
       <c r="S211">
-        <v>85.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T211" t="s">
         <v>687</v>
       </c>
       <c r="U211" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V211">
         <v>0</v>
@@ -20194,13 +20194,13 @@
         <v>178</v>
       </c>
       <c r="E212">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H212" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I212" t="s">
         <v>341</v>
@@ -20221,13 +20221,13 @@
         <v>8</v>
       </c>
       <c r="S212">
-        <v>0.0625</v>
+        <v>85.375</v>
       </c>
       <c r="T212" t="s">
         <v>687</v>
       </c>
       <c r="U212" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V212">
         <v>0</v>
@@ -20271,25 +20271,25 @@
     </row>
     <row r="213" spans="1:43">
       <c r="A213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B213" t="s">
         <v>178</v>
       </c>
       <c r="E213">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G213" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H213" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I213" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J213" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K213">
         <v>1</v>
@@ -20304,13 +20304,13 @@
         <v>8</v>
       </c>
       <c r="S213">
-        <v>85.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T213" t="s">
         <v>687</v>
       </c>
       <c r="U213" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V213">
         <v>0</v>
@@ -20360,13 +20360,13 @@
         <v>178</v>
       </c>
       <c r="E214">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H214" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I214" t="s">
         <v>341</v>
@@ -20387,13 +20387,13 @@
         <v>8</v>
       </c>
       <c r="S214">
-        <v>0.0625</v>
+        <v>85.375</v>
       </c>
       <c r="T214" t="s">
         <v>687</v>
       </c>
       <c r="U214" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V214">
         <v>0</v>
@@ -20437,25 +20437,25 @@
     </row>
     <row r="215" spans="1:43">
       <c r="A215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B215" t="s">
         <v>178</v>
       </c>
       <c r="E215">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G215" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H215" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I215" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J215" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K215">
         <v>1</v>
@@ -20470,13 +20470,13 @@
         <v>8</v>
       </c>
       <c r="S215">
-        <v>91.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T215" t="s">
         <v>687</v>
       </c>
       <c r="U215" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V215">
         <v>0</v>
@@ -20526,13 +20526,13 @@
         <v>178</v>
       </c>
       <c r="E216">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H216" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I216" t="s">
         <v>341</v>
@@ -20553,13 +20553,13 @@
         <v>8</v>
       </c>
       <c r="S216">
-        <v>0.0625</v>
+        <v>91.375</v>
       </c>
       <c r="T216" t="s">
         <v>687</v>
       </c>
       <c r="U216" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V216">
         <v>0</v>
@@ -20603,25 +20603,25 @@
     </row>
     <row r="217" spans="1:43">
       <c r="A217" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B217" t="s">
         <v>178</v>
       </c>
       <c r="E217">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G217" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H217" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I217" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J217" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K217">
         <v>1</v>
@@ -20636,13 +20636,13 @@
         <v>8</v>
       </c>
       <c r="S217">
-        <v>91.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T217" t="s">
         <v>687</v>
       </c>
       <c r="U217" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -20692,13 +20692,13 @@
         <v>178</v>
       </c>
       <c r="E218">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H218" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I218" t="s">
         <v>341</v>
@@ -20719,13 +20719,13 @@
         <v>8</v>
       </c>
       <c r="S218">
-        <v>0.0625</v>
+        <v>91.375</v>
       </c>
       <c r="T218" t="s">
         <v>687</v>
       </c>
       <c r="U218" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -20769,25 +20769,25 @@
     </row>
     <row r="219" spans="1:43">
       <c r="A219" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B219" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G219" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H219" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I219" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J219" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K219">
         <v>1</v>
@@ -20802,13 +20802,13 @@
         <v>8</v>
       </c>
       <c r="S219">
-        <v>97.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T219" t="s">
         <v>687</v>
       </c>
       <c r="U219" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V219">
         <v>0</v>
@@ -20858,13 +20858,13 @@
         <v>179</v>
       </c>
       <c r="E220">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H220" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I220" t="s">
         <v>341</v>
@@ -20885,13 +20885,13 @@
         <v>8</v>
       </c>
       <c r="S220">
-        <v>0.0625</v>
+        <v>97.375</v>
       </c>
       <c r="T220" t="s">
         <v>687</v>
       </c>
       <c r="U220" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -20935,25 +20935,25 @@
     </row>
     <row r="221" spans="1:43">
       <c r="A221" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B221" t="s">
         <v>179</v>
       </c>
       <c r="E221">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G221" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H221" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I221" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J221" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -20968,13 +20968,13 @@
         <v>8</v>
       </c>
       <c r="S221">
-        <v>97.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T221" t="s">
         <v>687</v>
       </c>
       <c r="U221" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V221">
         <v>0</v>
@@ -21024,13 +21024,13 @@
         <v>179</v>
       </c>
       <c r="E222">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H222" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I222" t="s">
         <v>341</v>
@@ -21051,13 +21051,13 @@
         <v>8</v>
       </c>
       <c r="S222">
-        <v>0.0625</v>
+        <v>97.375</v>
       </c>
       <c r="T222" t="s">
         <v>687</v>
       </c>
       <c r="U222" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V222">
         <v>0</v>
@@ -21101,19 +21101,19 @@
     </row>
     <row r="223" spans="1:43">
       <c r="A223" t="s">
+        <v>59</v>
+      </c>
+      <c r="B223" t="s">
+        <v>179</v>
+      </c>
+      <c r="E223">
         <v>60</v>
       </c>
-      <c r="B223" t="s">
-        <v>180</v>
-      </c>
-      <c r="E223">
-        <v>10</v>
-      </c>
       <c r="G223" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H223" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I223" t="s">
         <v>342</v>
@@ -21134,13 +21134,13 @@
         <v>8</v>
       </c>
       <c r="S223">
-        <v>83.875</v>
+        <v>0.0625</v>
       </c>
       <c r="T223" t="s">
         <v>687</v>
       </c>
       <c r="U223" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V223">
         <v>0</v>
@@ -21190,19 +21190,19 @@
         <v>180</v>
       </c>
       <c r="E224">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H224" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I224" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J224" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K224">
         <v>1</v>
@@ -21217,13 +21217,13 @@
         <v>8</v>
       </c>
       <c r="S224">
-        <v>0.0625</v>
+        <v>83.875</v>
       </c>
       <c r="T224" t="s">
         <v>687</v>
       </c>
       <c r="U224" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V224">
         <v>0</v>
@@ -21267,19 +21267,19 @@
     </row>
     <row r="225" spans="1:43">
       <c r="A225" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B225" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E225">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G225" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H225" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I225" t="s">
         <v>342</v>
@@ -21300,13 +21300,13 @@
         <v>8</v>
       </c>
       <c r="S225">
-        <v>83.875</v>
+        <v>0.0625</v>
       </c>
       <c r="T225" t="s">
         <v>687</v>
       </c>
       <c r="U225" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V225">
         <v>0</v>
@@ -21356,19 +21356,19 @@
         <v>181</v>
       </c>
       <c r="E226">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H226" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I226" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J226" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K226">
         <v>1</v>
@@ -21383,13 +21383,13 @@
         <v>8</v>
       </c>
       <c r="S226">
-        <v>0.0625</v>
+        <v>83.875</v>
       </c>
       <c r="T226" t="s">
         <v>687</v>
       </c>
       <c r="U226" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V226">
         <v>0</v>
@@ -21433,19 +21433,19 @@
     </row>
     <row r="227" spans="1:43">
       <c r="A227" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B227" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E227">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G227" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H227" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I227" t="s">
         <v>342</v>
@@ -21466,13 +21466,13 @@
         <v>8</v>
       </c>
       <c r="S227">
-        <v>90.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T227" t="s">
         <v>687</v>
       </c>
       <c r="U227" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V227">
         <v>0</v>
@@ -21522,19 +21522,19 @@
         <v>182</v>
       </c>
       <c r="E228">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H228" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I228" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J228" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K228">
         <v>1</v>
@@ -21549,13 +21549,13 @@
         <v>8</v>
       </c>
       <c r="S228">
-        <v>0.0625</v>
+        <v>90.375</v>
       </c>
       <c r="T228" t="s">
         <v>687</v>
       </c>
       <c r="U228" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V228">
         <v>0</v>
@@ -21599,19 +21599,19 @@
     </row>
     <row r="229" spans="1:43">
       <c r="A229" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B229" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E229">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G229" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H229" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I229" t="s">
         <v>342</v>
@@ -21632,13 +21632,13 @@
         <v>8</v>
       </c>
       <c r="S229">
-        <v>90.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T229" t="s">
         <v>687</v>
       </c>
       <c r="U229" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V229">
         <v>0</v>
@@ -21688,19 +21688,19 @@
         <v>183</v>
       </c>
       <c r="E230">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H230" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I230" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J230" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K230">
         <v>1</v>
@@ -21715,13 +21715,13 @@
         <v>8</v>
       </c>
       <c r="S230">
-        <v>0.0625</v>
+        <v>90.375</v>
       </c>
       <c r="T230" t="s">
         <v>687</v>
       </c>
       <c r="U230" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V230">
         <v>0</v>
@@ -21765,19 +21765,19 @@
     </row>
     <row r="231" spans="1:43">
       <c r="A231" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B231" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E231">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G231" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H231" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I231" t="s">
         <v>342</v>
@@ -21798,13 +21798,13 @@
         <v>8</v>
       </c>
       <c r="S231">
-        <v>96.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T231" t="s">
         <v>687</v>
       </c>
       <c r="U231" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V231">
         <v>0</v>
@@ -21854,19 +21854,19 @@
         <v>184</v>
       </c>
       <c r="E232">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H232" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I232" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J232" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K232">
         <v>1</v>
@@ -21881,13 +21881,13 @@
         <v>8</v>
       </c>
       <c r="S232">
-        <v>0.0625</v>
+        <v>96.375</v>
       </c>
       <c r="T232" t="s">
         <v>687</v>
       </c>
       <c r="U232" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V232">
         <v>0</v>
@@ -21931,19 +21931,19 @@
     </row>
     <row r="233" spans="1:43">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B233" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E233">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G233" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H233" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I233" t="s">
         <v>342</v>
@@ -21964,13 +21964,13 @@
         <v>8</v>
       </c>
       <c r="S233">
-        <v>96.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T233" t="s">
         <v>687</v>
       </c>
       <c r="U233" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V233">
         <v>0</v>
@@ -22020,19 +22020,19 @@
         <v>185</v>
       </c>
       <c r="E234">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H234" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I234" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J234" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K234">
         <v>1</v>
@@ -22047,13 +22047,13 @@
         <v>8</v>
       </c>
       <c r="S234">
-        <v>0.0625</v>
+        <v>96.375</v>
       </c>
       <c r="T234" t="s">
         <v>687</v>
       </c>
       <c r="U234" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V234">
         <v>0</v>
@@ -22097,19 +22097,19 @@
     </row>
     <row r="235" spans="1:43">
       <c r="A235" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B235" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E235">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H235" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I235" t="s">
         <v>342</v>
@@ -22130,13 +22130,13 @@
         <v>8</v>
       </c>
       <c r="S235">
-        <v>102.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T235" t="s">
         <v>687</v>
       </c>
       <c r="U235" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V235">
         <v>0</v>
@@ -22186,19 +22186,19 @@
         <v>186</v>
       </c>
       <c r="E236">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H236" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I236" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J236" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K236">
         <v>1</v>
@@ -22213,13 +22213,13 @@
         <v>8</v>
       </c>
       <c r="S236">
-        <v>0.0625</v>
+        <v>102.375</v>
       </c>
       <c r="T236" t="s">
         <v>687</v>
       </c>
       <c r="U236" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V236">
         <v>0</v>
@@ -22263,19 +22263,19 @@
     </row>
     <row r="237" spans="1:43">
       <c r="A237" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B237" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E237">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G237" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H237" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I237" t="s">
         <v>342</v>
@@ -22296,13 +22296,13 @@
         <v>8</v>
       </c>
       <c r="S237">
-        <v>102.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T237" t="s">
         <v>687</v>
       </c>
       <c r="U237" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V237">
         <v>0</v>
@@ -22352,19 +22352,19 @@
         <v>187</v>
       </c>
       <c r="E238">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H238" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I238" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J238" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K238">
         <v>1</v>
@@ -22379,13 +22379,13 @@
         <v>8</v>
       </c>
       <c r="S238">
-        <v>0.0625</v>
+        <v>102.375</v>
       </c>
       <c r="T238" t="s">
         <v>687</v>
       </c>
       <c r="U238" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V238">
         <v>0</v>
@@ -22429,25 +22429,25 @@
     </row>
     <row r="239" spans="1:43">
       <c r="A239" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B239" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E239">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G239" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H239" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I239" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J239" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K239">
         <v>1</v>
@@ -22462,13 +22462,13 @@
         <v>8</v>
       </c>
       <c r="S239">
-        <v>79.875</v>
+        <v>0.0625</v>
       </c>
       <c r="T239" t="s">
         <v>687</v>
       </c>
       <c r="U239" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V239">
         <v>0</v>
@@ -22518,19 +22518,19 @@
         <v>188</v>
       </c>
       <c r="E240">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H240" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I240" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J240" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K240">
         <v>1</v>
@@ -22545,13 +22545,13 @@
         <v>8</v>
       </c>
       <c r="S240">
-        <v>0.0625</v>
+        <v>79.875</v>
       </c>
       <c r="T240" t="s">
         <v>687</v>
       </c>
       <c r="U240" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V240">
         <v>0</v>
@@ -22595,25 +22595,25 @@
     </row>
     <row r="241" spans="1:43">
       <c r="A241" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B241" t="s">
         <v>188</v>
       </c>
       <c r="E241">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G241" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H241" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I241" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J241" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -22628,13 +22628,13 @@
         <v>8</v>
       </c>
       <c r="S241">
-        <v>78.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T241" t="s">
         <v>687</v>
       </c>
       <c r="U241" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V241">
         <v>0</v>
@@ -22684,19 +22684,19 @@
         <v>188</v>
       </c>
       <c r="E242">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H242" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I242" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J242" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -22711,13 +22711,13 @@
         <v>8</v>
       </c>
       <c r="S242">
-        <v>0.0625</v>
+        <v>78.375</v>
       </c>
       <c r="T242" t="s">
         <v>687</v>
       </c>
       <c r="U242" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V242">
         <v>0</v>
@@ -22761,25 +22761,25 @@
     </row>
     <row r="243" spans="1:43">
       <c r="A243" t="s">
+        <v>69</v>
+      </c>
+      <c r="B243" t="s">
+        <v>188</v>
+      </c>
+      <c r="E243">
         <v>70</v>
       </c>
-      <c r="B243" t="s">
-        <v>189</v>
-      </c>
-      <c r="E243">
-        <v>10</v>
-      </c>
       <c r="G243" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I243" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J243" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K243">
         <v>1</v>
@@ -22794,13 +22794,13 @@
         <v>8</v>
       </c>
       <c r="S243">
-        <v>86.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T243" t="s">
         <v>687</v>
       </c>
       <c r="U243" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V243">
         <v>0</v>
@@ -22850,19 +22850,19 @@
         <v>189</v>
       </c>
       <c r="E244">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H244" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I244" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J244" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -22877,13 +22877,13 @@
         <v>8</v>
       </c>
       <c r="S244">
-        <v>0.0625</v>
+        <v>86.375</v>
       </c>
       <c r="T244" t="s">
         <v>687</v>
       </c>
       <c r="U244" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V244">
         <v>0</v>
@@ -22927,25 +22927,25 @@
     </row>
     <row r="245" spans="1:43">
       <c r="A245" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B245" t="s">
         <v>189</v>
       </c>
       <c r="E245">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G245" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H245" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I245" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J245" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K245">
         <v>1</v>
@@ -22960,13 +22960,13 @@
         <v>8</v>
       </c>
       <c r="S245">
-        <v>84.875</v>
+        <v>0.0625</v>
       </c>
       <c r="T245" t="s">
         <v>687</v>
       </c>
       <c r="U245" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V245">
         <v>0</v>
@@ -23016,19 +23016,19 @@
         <v>189</v>
       </c>
       <c r="E246">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H246" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I246" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J246" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K246">
         <v>1</v>
@@ -23043,13 +23043,13 @@
         <v>8</v>
       </c>
       <c r="S246">
-        <v>0.0625</v>
+        <v>84.875</v>
       </c>
       <c r="T246" t="s">
         <v>687</v>
       </c>
       <c r="U246" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V246">
         <v>0</v>
@@ -23093,25 +23093,25 @@
     </row>
     <row r="247" spans="1:43">
       <c r="A247" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B247" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E247">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G247" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H247" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I247" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J247" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -23126,13 +23126,13 @@
         <v>8</v>
       </c>
       <c r="S247">
-        <v>92.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T247" t="s">
         <v>687</v>
       </c>
       <c r="U247" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V247">
         <v>0</v>
@@ -23182,19 +23182,19 @@
         <v>190</v>
       </c>
       <c r="E248">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H248" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I248" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J248" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -23209,13 +23209,13 @@
         <v>8</v>
       </c>
       <c r="S248">
-        <v>0.0625</v>
+        <v>92.375</v>
       </c>
       <c r="T248" t="s">
         <v>687</v>
       </c>
       <c r="U248" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V248">
         <v>0</v>
@@ -23259,25 +23259,25 @@
     </row>
     <row r="249" spans="1:43">
       <c r="A249" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B249" t="s">
         <v>190</v>
       </c>
       <c r="E249">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G249" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H249" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I249" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J249" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -23292,13 +23292,13 @@
         <v>8</v>
       </c>
       <c r="S249">
-        <v>90.875</v>
+        <v>0.0625</v>
       </c>
       <c r="T249" t="s">
         <v>687</v>
       </c>
       <c r="U249" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V249">
         <v>0</v>
@@ -23348,19 +23348,19 @@
         <v>190</v>
       </c>
       <c r="E250">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H250" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I250" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J250" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K250">
         <v>1</v>
@@ -23375,13 +23375,13 @@
         <v>8</v>
       </c>
       <c r="S250">
-        <v>0.0625</v>
+        <v>90.875</v>
       </c>
       <c r="T250" t="s">
         <v>687</v>
       </c>
       <c r="U250" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V250">
         <v>0</v>
@@ -23425,25 +23425,25 @@
     </row>
     <row r="251" spans="1:43">
       <c r="A251" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B251" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E251">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G251" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H251" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I251" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J251" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K251">
         <v>1</v>
@@ -23458,13 +23458,13 @@
         <v>8</v>
       </c>
       <c r="S251">
-        <v>98.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T251" t="s">
         <v>687</v>
       </c>
       <c r="U251" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V251">
         <v>0</v>
@@ -23514,19 +23514,19 @@
         <v>191</v>
       </c>
       <c r="E252">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H252" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I252" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J252" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K252">
         <v>1</v>
@@ -23541,13 +23541,13 @@
         <v>8</v>
       </c>
       <c r="S252">
-        <v>0.0625</v>
+        <v>98.375</v>
       </c>
       <c r="T252" t="s">
         <v>687</v>
       </c>
       <c r="U252" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V252">
         <v>0</v>
@@ -23591,25 +23591,25 @@
     </row>
     <row r="253" spans="1:43">
       <c r="A253" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B253" t="s">
         <v>191</v>
       </c>
       <c r="E253">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G253" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H253" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I253" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J253" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -23624,13 +23624,13 @@
         <v>8</v>
       </c>
       <c r="S253">
-        <v>96.875</v>
+        <v>0.0625</v>
       </c>
       <c r="T253" t="s">
         <v>687</v>
       </c>
       <c r="U253" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V253">
         <v>0</v>
@@ -23680,19 +23680,19 @@
         <v>191</v>
       </c>
       <c r="E254">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G254" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H254" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I254" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J254" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K254">
         <v>1</v>
@@ -23707,13 +23707,13 @@
         <v>8</v>
       </c>
       <c r="S254">
-        <v>0.0625</v>
+        <v>96.875</v>
       </c>
       <c r="T254" t="s">
         <v>687</v>
       </c>
       <c r="U254" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V254">
         <v>0</v>
@@ -23757,19 +23757,19 @@
     </row>
     <row r="255" spans="1:43">
       <c r="A255" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B255" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E255">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G255" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H255" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I255" t="s">
         <v>342</v>
@@ -23790,13 +23790,13 @@
         <v>8</v>
       </c>
       <c r="S255">
-        <v>79</v>
+        <v>0.0625</v>
       </c>
       <c r="T255" t="s">
         <v>687</v>
       </c>
       <c r="U255" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V255">
         <v>0</v>
@@ -23846,19 +23846,19 @@
         <v>192</v>
       </c>
       <c r="E256">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H256" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I256" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J256" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K256">
         <v>1</v>
@@ -23873,13 +23873,13 @@
         <v>8</v>
       </c>
       <c r="S256">
-        <v>0.0625</v>
+        <v>79</v>
       </c>
       <c r="T256" t="s">
         <v>687</v>
       </c>
       <c r="U256" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V256">
         <v>0</v>
@@ -23923,19 +23923,19 @@
     </row>
     <row r="257" spans="1:43">
       <c r="A257" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B257" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E257">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H257" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I257" t="s">
         <v>342</v>
@@ -23956,13 +23956,13 @@
         <v>8</v>
       </c>
       <c r="S257">
-        <v>85.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T257" t="s">
         <v>687</v>
       </c>
       <c r="U257" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V257">
         <v>0</v>
@@ -24012,19 +24012,19 @@
         <v>193</v>
       </c>
       <c r="E258">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H258" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I258" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J258" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K258">
         <v>1</v>
@@ -24039,13 +24039,13 @@
         <v>8</v>
       </c>
       <c r="S258">
-        <v>0.0625</v>
+        <v>85.5</v>
       </c>
       <c r="T258" t="s">
         <v>687</v>
       </c>
       <c r="U258" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V258">
         <v>0</v>
@@ -24089,19 +24089,19 @@
     </row>
     <row r="259" spans="1:43">
       <c r="A259" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B259" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E259">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G259" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H259" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I259" t="s">
         <v>342</v>
@@ -24122,13 +24122,13 @@
         <v>8</v>
       </c>
       <c r="S259">
-        <v>91.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T259" t="s">
         <v>687</v>
       </c>
       <c r="U259" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V259">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>194</v>
       </c>
       <c r="E260">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G260" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H260" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I260" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J260" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K260">
         <v>1</v>
@@ -24205,13 +24205,13 @@
         <v>8</v>
       </c>
       <c r="S260">
-        <v>0.0625</v>
+        <v>91.5</v>
       </c>
       <c r="T260" t="s">
         <v>687</v>
       </c>
       <c r="U260" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V260">
         <v>0</v>
@@ -24255,19 +24255,19 @@
     </row>
     <row r="261" spans="1:43">
       <c r="A261" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B261" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E261">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G261" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H261" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I261" t="s">
         <v>342</v>
@@ -24288,13 +24288,13 @@
         <v>8</v>
       </c>
       <c r="S261">
-        <v>97.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T261" t="s">
         <v>687</v>
       </c>
       <c r="U261" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V261">
         <v>0</v>
@@ -24344,19 +24344,19 @@
         <v>195</v>
       </c>
       <c r="E262">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G262" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H262" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I262" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J262" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K262">
         <v>1</v>
@@ -24371,13 +24371,13 @@
         <v>8</v>
       </c>
       <c r="S262">
-        <v>0.0625</v>
+        <v>97.5</v>
       </c>
       <c r="T262" t="s">
         <v>687</v>
       </c>
       <c r="U262" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V262">
         <v>0</v>
@@ -24421,25 +24421,25 @@
     </row>
     <row r="263" spans="1:43">
       <c r="A263" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B263" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E263">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G263" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H263" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I263" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J263" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K263">
         <v>1</v>
@@ -24454,13 +24454,13 @@
         <v>8</v>
       </c>
       <c r="S263">
-        <v>21.875</v>
+        <v>0.0625</v>
       </c>
       <c r="T263" t="s">
         <v>687</v>
       </c>
       <c r="U263" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V263">
         <v>0</v>
@@ -24510,19 +24510,19 @@
         <v>196</v>
       </c>
       <c r="E264">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G264" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H264" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I264" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J264" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K264">
         <v>1</v>
@@ -24537,13 +24537,13 @@
         <v>8</v>
       </c>
       <c r="S264">
-        <v>0.0625</v>
+        <v>21.875</v>
       </c>
       <c r="T264" t="s">
         <v>687</v>
       </c>
       <c r="U264" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V264">
         <v>0</v>
@@ -24587,25 +24587,25 @@
     </row>
     <row r="265" spans="1:43">
       <c r="A265" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B265" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E265">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G265" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H265" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I265" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J265" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -24620,13 +24620,13 @@
         <v>8</v>
       </c>
       <c r="S265">
-        <v>28.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T265" t="s">
         <v>687</v>
       </c>
       <c r="U265" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V265">
         <v>0</v>
@@ -24676,19 +24676,19 @@
         <v>197</v>
       </c>
       <c r="E266">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G266" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I266" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J266" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K266">
         <v>1</v>
@@ -24703,13 +24703,13 @@
         <v>8</v>
       </c>
       <c r="S266">
-        <v>0.0625</v>
+        <v>28.375</v>
       </c>
       <c r="T266" t="s">
         <v>687</v>
       </c>
       <c r="U266" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V266">
         <v>0</v>
@@ -24753,25 +24753,25 @@
     </row>
     <row r="267" spans="1:43">
       <c r="A267" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B267" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E267">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G267" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H267" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I267" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J267" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K267">
         <v>1</v>
@@ -24786,13 +24786,13 @@
         <v>8</v>
       </c>
       <c r="S267">
-        <v>34.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T267" t="s">
         <v>687</v>
       </c>
       <c r="U267" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V267">
         <v>0</v>
@@ -24842,19 +24842,19 @@
         <v>198</v>
       </c>
       <c r="E268">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G268" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I268" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J268" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K268">
         <v>1</v>
@@ -24869,13 +24869,13 @@
         <v>8</v>
       </c>
       <c r="S268">
-        <v>0.0625</v>
+        <v>34.375</v>
       </c>
       <c r="T268" t="s">
         <v>687</v>
       </c>
       <c r="U268" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V268">
         <v>0</v>
@@ -24919,25 +24919,25 @@
     </row>
     <row r="269" spans="1:43">
       <c r="A269" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B269" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E269">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G269" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H269" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I269" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J269" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -24952,13 +24952,13 @@
         <v>8</v>
       </c>
       <c r="S269">
-        <v>40.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T269" t="s">
         <v>687</v>
       </c>
       <c r="U269" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V269">
         <v>0</v>
@@ -25008,19 +25008,19 @@
         <v>199</v>
       </c>
       <c r="E270">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G270" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I270" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J270" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -25035,13 +25035,13 @@
         <v>8</v>
       </c>
       <c r="S270">
-        <v>0.0625</v>
+        <v>40.375</v>
       </c>
       <c r="T270" t="s">
         <v>687</v>
       </c>
       <c r="U270" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V270">
         <v>0</v>
@@ -25085,25 +25085,25 @@
     </row>
     <row r="271" spans="1:43">
       <c r="A271" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B271" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E271">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G271" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H271" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I271" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J271" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K271">
         <v>1</v>
@@ -25118,13 +25118,13 @@
         <v>8</v>
       </c>
       <c r="S271">
-        <v>75</v>
+        <v>0.0625</v>
       </c>
       <c r="T271" t="s">
         <v>687</v>
       </c>
       <c r="U271" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V271">
         <v>0</v>
@@ -25174,13 +25174,13 @@
         <v>200</v>
       </c>
       <c r="E272">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H272" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I272" t="s">
         <v>341</v>
@@ -25201,13 +25201,13 @@
         <v>8</v>
       </c>
       <c r="S272">
-        <v>0.0625</v>
+        <v>75</v>
       </c>
       <c r="T272" t="s">
         <v>687</v>
       </c>
       <c r="U272" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V272">
         <v>0</v>
@@ -25251,25 +25251,25 @@
     </row>
     <row r="273" spans="1:43">
       <c r="A273" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B273" t="s">
         <v>200</v>
       </c>
       <c r="E273">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G273" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H273" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I273" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J273" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -25284,13 +25284,13 @@
         <v>8</v>
       </c>
       <c r="S273">
-        <v>81.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T273" t="s">
         <v>687</v>
       </c>
       <c r="U273" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V273">
         <v>0</v>
@@ -25340,13 +25340,13 @@
         <v>200</v>
       </c>
       <c r="E274">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G274" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H274" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I274" t="s">
         <v>341</v>
@@ -25367,13 +25367,13 @@
         <v>8</v>
       </c>
       <c r="S274">
-        <v>0.0625</v>
+        <v>81.5</v>
       </c>
       <c r="T274" t="s">
         <v>687</v>
       </c>
       <c r="U274" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V274">
         <v>0</v>
@@ -25417,25 +25417,25 @@
     </row>
     <row r="275" spans="1:43">
       <c r="A275" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B275" t="s">
         <v>200</v>
       </c>
       <c r="E275">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G275" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H275" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I275" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J275" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K275">
         <v>1</v>
@@ -25450,13 +25450,13 @@
         <v>8</v>
       </c>
       <c r="S275">
-        <v>87.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T275" t="s">
         <v>687</v>
       </c>
       <c r="U275" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V275">
         <v>0</v>
@@ -25506,13 +25506,13 @@
         <v>200</v>
       </c>
       <c r="E276">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G276" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H276" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I276" t="s">
         <v>341</v>
@@ -25533,13 +25533,13 @@
         <v>8</v>
       </c>
       <c r="S276">
-        <v>0.0625</v>
+        <v>87.5</v>
       </c>
       <c r="T276" t="s">
         <v>687</v>
       </c>
       <c r="U276" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V276">
         <v>0</v>
@@ -25583,25 +25583,25 @@
     </row>
     <row r="277" spans="1:43">
       <c r="A277" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B277" t="s">
         <v>200</v>
       </c>
       <c r="E277">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G277" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H277" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I277" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J277" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K277">
         <v>1</v>
@@ -25616,13 +25616,13 @@
         <v>8</v>
       </c>
       <c r="S277">
-        <v>93.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T277" t="s">
         <v>687</v>
       </c>
       <c r="U277" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V277">
         <v>0</v>
@@ -25672,13 +25672,13 @@
         <v>200</v>
       </c>
       <c r="E278">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G278" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H278" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I278" t="s">
         <v>341</v>
@@ -25699,13 +25699,13 @@
         <v>8</v>
       </c>
       <c r="S278">
-        <v>0.0625</v>
+        <v>93.5</v>
       </c>
       <c r="T278" t="s">
         <v>687</v>
       </c>
       <c r="U278" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V278">
         <v>0</v>
@@ -25749,25 +25749,25 @@
     </row>
     <row r="279" spans="1:43">
       <c r="A279" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B279" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E279">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G279" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H279" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I279" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J279" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K279">
         <v>1</v>
@@ -25782,13 +25782,13 @@
         <v>8</v>
       </c>
       <c r="S279">
-        <v>16.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T279" t="s">
         <v>687</v>
       </c>
       <c r="U279" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V279">
         <v>0</v>
@@ -25832,7 +25832,7 @@
     </row>
     <row r="280" spans="1:43">
       <c r="A280" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B280" t="s">
         <v>201</v>
@@ -25847,10 +25847,10 @@
         <v>267</v>
       </c>
       <c r="I280" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J280" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K280">
         <v>1</v>
@@ -25865,7 +25865,7 @@
         <v>8</v>
       </c>
       <c r="S280">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="T280" t="s">
         <v>687</v>
@@ -25915,7 +25915,7 @@
     </row>
     <row r="281" spans="1:43">
       <c r="A281" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B281" t="s">
         <v>201</v>
@@ -25930,10 +25930,10 @@
         <v>267</v>
       </c>
       <c r="I281" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J281" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K281">
         <v>1</v>
@@ -25948,7 +25948,7 @@
         <v>8</v>
       </c>
       <c r="S281">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T281" t="s">
         <v>687</v>
@@ -25998,7 +25998,7 @@
     </row>
     <row r="282" spans="1:43">
       <c r="A282" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B282" t="s">
         <v>201</v>
@@ -26013,10 +26013,10 @@
         <v>267</v>
       </c>
       <c r="I282" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J282" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K282">
         <v>1</v>
@@ -26031,7 +26031,7 @@
         <v>8</v>
       </c>
       <c r="S282">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T282" t="s">
         <v>687</v>
@@ -26081,7 +26081,7 @@
     </row>
     <row r="283" spans="1:43">
       <c r="A283" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B283" t="s">
         <v>201</v>
@@ -26096,10 +26096,10 @@
         <v>267</v>
       </c>
       <c r="I283" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J283" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K283">
         <v>1</v>
@@ -26114,7 +26114,7 @@
         <v>8</v>
       </c>
       <c r="S283">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T283" t="s">
         <v>687</v>
@@ -26164,19 +26164,19 @@
     </row>
     <row r="284" spans="1:43">
       <c r="A284" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B284" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E284">
         <v>10</v>
       </c>
       <c r="G284" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I284" t="s">
         <v>346</v>
@@ -26197,13 +26197,13 @@
         <v>8</v>
       </c>
       <c r="S284">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="T284" t="s">
         <v>687</v>
       </c>
       <c r="U284" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V284">
         <v>0</v>
@@ -26262,16 +26262,16 @@
         <v>266</v>
       </c>
       <c r="I285" t="s">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="J285" t="s">
-        <v>203</v>
+        <v>551</v>
       </c>
       <c r="K285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M285">
         <v>0</v>
@@ -26345,16 +26345,16 @@
         <v>266</v>
       </c>
       <c r="I286" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J286" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M286">
         <v>0</v>
@@ -26363,7 +26363,7 @@
         <v>8</v>
       </c>
       <c r="S286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T286" t="s">
         <v>687</v>
@@ -26428,16 +26428,16 @@
         <v>266</v>
       </c>
       <c r="I287" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J287" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K287">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M287">
         <v>0</v>
@@ -26511,16 +26511,16 @@
         <v>266</v>
       </c>
       <c r="I288" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J288" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K288">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L288">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M288">
         <v>0</v>
@@ -26594,16 +26594,16 @@
         <v>266</v>
       </c>
       <c r="I289" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J289" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K289">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L289">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M289">
         <v>0</v>
@@ -26677,16 +26677,16 @@
         <v>266</v>
       </c>
       <c r="I290" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J290" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K290">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L290">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M290">
         <v>0</v>
@@ -26760,16 +26760,16 @@
         <v>266</v>
       </c>
       <c r="I291" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J291" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K291">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L291">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M291">
         <v>0</v>
@@ -26843,16 +26843,16 @@
         <v>266</v>
       </c>
       <c r="I292" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J292" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K292">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L292">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M292">
         <v>0</v>
@@ -26926,16 +26926,16 @@
         <v>266</v>
       </c>
       <c r="I293" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J293" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K293">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L293">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M293">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         <v>266</v>
       </c>
       <c r="I294" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J294" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K294">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L294">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M294">
         <v>0</v>
@@ -27077,31 +27077,31 @@
     </row>
     <row r="295" spans="1:43">
       <c r="A295" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B295" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E295">
         <v>10</v>
       </c>
       <c r="G295" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H295" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I295" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="J295" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K295">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L295">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M295">
         <v>0</v>
@@ -27110,7 +27110,7 @@
         <v>8</v>
       </c>
       <c r="S295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T295" t="s">
         <v>687</v>
@@ -27175,16 +27175,16 @@
         <v>269</v>
       </c>
       <c r="I296" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J296" t="s">
         <v>204</v>
       </c>
       <c r="K296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M296">
         <v>0</v>
@@ -27193,7 +27193,7 @@
         <v>8</v>
       </c>
       <c r="S296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T296" t="s">
         <v>687</v>
@@ -27249,25 +27249,25 @@
         <v>203</v>
       </c>
       <c r="E297">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G297" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H297" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I297" t="s">
-        <v>347</v>
+        <v>96</v>
       </c>
       <c r="J297" t="s">
-        <v>551</v>
+        <v>204</v>
       </c>
       <c r="K297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M297">
         <v>0</v>
@@ -27326,19 +27326,19 @@
     </row>
     <row r="298" spans="1:43">
       <c r="A298" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B298" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E298">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G298" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H298" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I298" t="s">
         <v>348</v>
@@ -27359,13 +27359,13 @@
         <v>8</v>
       </c>
       <c r="S298">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="T298" t="s">
         <v>687</v>
       </c>
       <c r="U298" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V298">
         <v>0</v>
@@ -27409,7 +27409,7 @@
     </row>
     <row r="299" spans="1:43">
       <c r="A299" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B299" t="s">
         <v>204</v>
@@ -27442,7 +27442,7 @@
         <v>8</v>
       </c>
       <c r="S299">
-        <v>2.125</v>
+        <v>2.25</v>
       </c>
       <c r="T299" t="s">
         <v>687</v>
@@ -27492,10 +27492,10 @@
     </row>
     <row r="300" spans="1:43">
       <c r="A300" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B300" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E300">
         <v>10</v>
@@ -27525,7 +27525,7 @@
         <v>8</v>
       </c>
       <c r="S300">
-        <v>12.125</v>
+        <v>2.125</v>
       </c>
       <c r="T300" t="s">
         <v>687</v>
@@ -27581,19 +27581,19 @@
         <v>205</v>
       </c>
       <c r="E301">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G301" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H301" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I301" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="J301" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K301">
         <v>1</v>
@@ -27608,13 +27608,13 @@
         <v>8</v>
       </c>
       <c r="S301">
-        <v>1</v>
+        <v>12.125</v>
       </c>
       <c r="T301" t="s">
         <v>687</v>
       </c>
       <c r="U301" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -27658,25 +27658,25 @@
     </row>
     <row r="302" spans="1:43">
       <c r="A302" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B302" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E302">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G302" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H302" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I302" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J302" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K302">
         <v>1</v>
@@ -27691,13 +27691,13 @@
         <v>8</v>
       </c>
       <c r="S302">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T302" t="s">
         <v>687</v>
       </c>
       <c r="U302" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V302">
         <v>0</v>
@@ -27747,19 +27747,19 @@
         <v>206</v>
       </c>
       <c r="E303">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G303" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H303" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I303" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="J303" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="K303">
         <v>1</v>
@@ -27774,13 +27774,13 @@
         <v>8</v>
       </c>
       <c r="S303">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T303" t="s">
         <v>687</v>
       </c>
       <c r="U303" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V303">
         <v>0</v>
@@ -27824,25 +27824,25 @@
     </row>
     <row r="304" spans="1:43">
       <c r="A304" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B304" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E304">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G304" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H304" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I304" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J304" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K304">
         <v>1</v>
@@ -27857,13 +27857,13 @@
         <v>8</v>
       </c>
       <c r="S304">
-        <v>4.75</v>
+        <v>1</v>
       </c>
       <c r="T304" t="s">
         <v>687</v>
       </c>
       <c r="U304" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V304">
         <v>0</v>
@@ -27913,19 +27913,19 @@
         <v>207</v>
       </c>
       <c r="E305">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G305" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H305" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I305" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="J305" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="K305">
         <v>1</v>
@@ -27940,13 +27940,13 @@
         <v>8</v>
       </c>
       <c r="S305">
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="T305" t="s">
         <v>687</v>
       </c>
       <c r="U305" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V305">
         <v>0</v>
@@ -27990,25 +27990,25 @@
     </row>
     <row r="306" spans="1:43">
       <c r="A306" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B306" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E306">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H306" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I306" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J306" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K306">
         <v>1</v>
@@ -28023,13 +28023,13 @@
         <v>8</v>
       </c>
       <c r="S306">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T306" t="s">
         <v>687</v>
       </c>
       <c r="U306" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V306">
         <v>0</v>
@@ -28079,19 +28079,19 @@
         <v>208</v>
       </c>
       <c r="E307">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G307" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H307" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I307" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="J307" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="K307">
         <v>1</v>
@@ -28106,13 +28106,13 @@
         <v>8</v>
       </c>
       <c r="S307">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T307" t="s">
         <v>687</v>
       </c>
       <c r="U307" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V307">
         <v>0</v>
@@ -28156,25 +28156,25 @@
     </row>
     <row r="308" spans="1:43">
       <c r="A308" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B308" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E308">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G308" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H308" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I308" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J308" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K308">
         <v>1</v>
@@ -28189,13 +28189,13 @@
         <v>8</v>
       </c>
       <c r="S308">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T308" t="s">
         <v>687</v>
       </c>
       <c r="U308" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V308">
         <v>0</v>
@@ -28239,10 +28239,10 @@
     </row>
     <row r="309" spans="1:43">
       <c r="A309" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B309" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E309">
         <v>10</v>
@@ -28254,10 +28254,10 @@
         <v>267</v>
       </c>
       <c r="I309" t="s">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="J309" t="s">
-        <v>209</v>
+        <v>559</v>
       </c>
       <c r="K309">
         <v>1</v>
@@ -28272,13 +28272,13 @@
         <v>8</v>
       </c>
       <c r="S309">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T309" t="s">
         <v>687</v>
       </c>
       <c r="U309" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V309">
         <v>0</v>
@@ -28328,19 +28328,19 @@
         <v>210</v>
       </c>
       <c r="E310">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G310" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H310" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I310" t="s">
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="J310" t="s">
-        <v>551</v>
+        <v>209</v>
       </c>
       <c r="K310">
         <v>1</v>
@@ -28405,25 +28405,25 @@
     </row>
     <row r="311" spans="1:43">
       <c r="A311" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B311" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E311">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G311" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H311" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I311" t="s">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="J311" t="s">
-        <v>209</v>
+        <v>552</v>
       </c>
       <c r="K311">
         <v>1</v>
@@ -28494,19 +28494,19 @@
         <v>209</v>
       </c>
       <c r="E312">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G312" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H312" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I312" t="s">
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="J312" t="s">
-        <v>551</v>
+        <v>209</v>
       </c>
       <c r="K312">
         <v>1</v>
@@ -28571,25 +28571,25 @@
     </row>
     <row r="313" spans="1:43">
       <c r="A313" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B313" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E313">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G313" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H313" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I313" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J313" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K313">
         <v>1</v>
@@ -28604,13 +28604,13 @@
         <v>8</v>
       </c>
       <c r="S313">
-        <v>17.375</v>
+        <v>1</v>
       </c>
       <c r="T313" t="s">
         <v>687</v>
       </c>
       <c r="U313" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V313">
         <v>0</v>
@@ -28660,13 +28660,13 @@
         <v>211</v>
       </c>
       <c r="E314">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G314" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H314" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I314" t="s">
         <v>356</v>
@@ -28687,13 +28687,13 @@
         <v>8</v>
       </c>
       <c r="S314">
-        <v>3</v>
+        <v>17.375</v>
       </c>
       <c r="T314" t="s">
         <v>687</v>
       </c>
       <c r="U314" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V314">
         <v>0</v>
@@ -28737,19 +28737,19 @@
     </row>
     <row r="315" spans="1:43">
       <c r="A315" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B315" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E315">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G315" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H315" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I315" t="s">
         <v>357</v>
@@ -28770,13 +28770,13 @@
         <v>8</v>
       </c>
       <c r="S315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T315" t="s">
         <v>687</v>
       </c>
       <c r="U315" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="V315">
         <v>0</v>
@@ -28820,19 +28820,19 @@
     </row>
     <row r="316" spans="1:43">
       <c r="A316" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B316" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E316">
         <v>10</v>
       </c>
       <c r="G316" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H316" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I316" t="s">
         <v>358</v>
@@ -28903,10 +28903,10 @@
     </row>
     <row r="317" spans="1:43">
       <c r="A317" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B317" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E317">
         <v>10</v>
@@ -28986,25 +28986,25 @@
     </row>
     <row r="318" spans="1:43">
       <c r="A318" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B318" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E318">
         <v>10</v>
       </c>
       <c r="G318" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H318" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I318" t="s">
-        <v>109</v>
+        <v>360</v>
       </c>
       <c r="J318" t="s">
-        <v>216</v>
+        <v>564</v>
       </c>
       <c r="K318">
         <v>1</v>
@@ -29084,16 +29084,16 @@
         <v>266</v>
       </c>
       <c r="I319" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="J319" t="s">
-        <v>564</v>
+        <v>216</v>
       </c>
       <c r="K319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M319">
         <v>0</v>
@@ -29102,7 +29102,7 @@
         <v>8</v>
       </c>
       <c r="S319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T319" t="s">
         <v>687</v>
@@ -29167,16 +29167,16 @@
         <v>266</v>
       </c>
       <c r="I320" t="s">
-        <v>110</v>
+        <v>361</v>
       </c>
       <c r="J320" t="s">
-        <v>217</v>
+        <v>565</v>
       </c>
       <c r="K320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M320">
         <v>0</v>
@@ -29250,16 +29250,16 @@
         <v>266</v>
       </c>
       <c r="I321" t="s">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="J321" t="s">
-        <v>565</v>
+        <v>217</v>
       </c>
       <c r="K321">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M321">
         <v>0</v>
@@ -29339,10 +29339,10 @@
         <v>566</v>
       </c>
       <c r="K322">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L322">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M322">
         <v>0</v>
@@ -29422,10 +29422,10 @@
         <v>567</v>
       </c>
       <c r="K323">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L323">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M323">
         <v>0</v>
@@ -29505,10 +29505,10 @@
         <v>568</v>
       </c>
       <c r="K324">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L324">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M324">
         <v>0</v>
@@ -29582,16 +29582,16 @@
         <v>266</v>
       </c>
       <c r="I325" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="J325" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="K325">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L325">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M325">
         <v>0</v>
@@ -29665,16 +29665,16 @@
         <v>266</v>
       </c>
       <c r="I326" t="s">
-        <v>111</v>
+        <v>360</v>
       </c>
       <c r="J326" t="s">
-        <v>218</v>
+        <v>564</v>
       </c>
       <c r="K326">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L326">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M326">
         <v>0</v>
@@ -29748,16 +29748,16 @@
         <v>266</v>
       </c>
       <c r="I327" t="s">
-        <v>365</v>
+        <v>111</v>
       </c>
       <c r="J327" t="s">
-        <v>569</v>
+        <v>218</v>
       </c>
       <c r="K327">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L327">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M327">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>8</v>
       </c>
       <c r="S327">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T327" t="s">
         <v>687</v>
@@ -29837,10 +29837,10 @@
         <v>570</v>
       </c>
       <c r="K328">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L328">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M328">
         <v>0</v>
@@ -29920,10 +29920,10 @@
         <v>571</v>
       </c>
       <c r="K329">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L329">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M329">
         <v>0</v>
@@ -29932,7 +29932,7 @@
         <v>8</v>
       </c>
       <c r="S329">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T329" t="s">
         <v>687</v>
@@ -29997,16 +29997,16 @@
         <v>266</v>
       </c>
       <c r="I330" t="s">
-        <v>113</v>
+        <v>368</v>
       </c>
       <c r="J330" t="s">
-        <v>220</v>
+        <v>572</v>
       </c>
       <c r="K330">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L330">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M330">
         <v>0</v>
@@ -30015,7 +30015,7 @@
         <v>8</v>
       </c>
       <c r="S330">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T330" t="s">
         <v>687</v>
@@ -30080,16 +30080,16 @@
         <v>266</v>
       </c>
       <c r="I331" t="s">
-        <v>368</v>
+        <v>113</v>
       </c>
       <c r="J331" t="s">
-        <v>572</v>
+        <v>220</v>
       </c>
       <c r="K331">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L331">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M331">
         <v>0</v>
@@ -30098,7 +30098,7 @@
         <v>8</v>
       </c>
       <c r="S331">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T331" t="s">
         <v>687</v>
@@ -30169,10 +30169,10 @@
         <v>573</v>
       </c>
       <c r="K332">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L332">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M332">
         <v>0</v>
@@ -30246,16 +30246,16 @@
         <v>266</v>
       </c>
       <c r="I333" t="s">
-        <v>112</v>
+        <v>370</v>
       </c>
       <c r="J333" t="s">
-        <v>219</v>
+        <v>574</v>
       </c>
       <c r="K333">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L333">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M333">
         <v>0</v>
@@ -30264,7 +30264,7 @@
         <v>8</v>
       </c>
       <c r="S333">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T333" t="s">
         <v>687</v>
@@ -30329,16 +30329,16 @@
         <v>266</v>
       </c>
       <c r="I334" t="s">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="J334" t="s">
-        <v>574</v>
+        <v>219</v>
       </c>
       <c r="K334">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L334">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M334">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>8</v>
       </c>
       <c r="S334">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T334" t="s">
         <v>687</v>
@@ -30418,10 +30418,10 @@
         <v>575</v>
       </c>
       <c r="K335">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L335">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M335">
         <v>0</v>
@@ -30430,7 +30430,7 @@
         <v>8</v>
       </c>
       <c r="S335">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T335" t="s">
         <v>687</v>
@@ -30495,16 +30495,16 @@
         <v>266</v>
       </c>
       <c r="I336" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="J336" t="s">
-        <v>499</v>
+        <v>576</v>
       </c>
       <c r="K336">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L336">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M336">
         <v>0</v>
@@ -30578,16 +30578,16 @@
         <v>266</v>
       </c>
       <c r="I337" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="J337" t="s">
-        <v>576</v>
+        <v>499</v>
       </c>
       <c r="K337">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L337">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M337">
         <v>0</v>
@@ -30646,19 +30646,19 @@
     </row>
     <row r="338" spans="1:43">
       <c r="A338" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B338" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E338">
         <v>10</v>
       </c>
       <c r="G338" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H338" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I338" t="s">
         <v>373</v>
@@ -30667,10 +30667,10 @@
         <v>577</v>
       </c>
       <c r="K338">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L338">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M338">
         <v>0</v>
@@ -30679,13 +30679,13 @@
         <v>8</v>
       </c>
       <c r="S338">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T338" t="s">
         <v>687</v>
       </c>
       <c r="U338" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V338">
         <v>0</v>
@@ -30735,13 +30735,13 @@
         <v>216</v>
       </c>
       <c r="E339">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G339" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H339" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I339" t="s">
         <v>374</v>
@@ -30762,13 +30762,13 @@
         <v>8</v>
       </c>
       <c r="S339">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T339" t="s">
         <v>687</v>
       </c>
       <c r="U339" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V339">
         <v>0</v>
@@ -30812,19 +30812,19 @@
     </row>
     <row r="340" spans="1:43">
       <c r="A340" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B340" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E340">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G340" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H340" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I340" t="s">
         <v>375</v>
@@ -30845,13 +30845,13 @@
         <v>8</v>
       </c>
       <c r="S340">
-        <v>8.75</v>
+        <v>2</v>
       </c>
       <c r="T340" t="s">
         <v>687</v>
       </c>
       <c r="U340" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V340">
         <v>0</v>
@@ -30895,10 +30895,10 @@
     </row>
     <row r="341" spans="1:43">
       <c r="A341" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B341" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E341">
         <v>10</v>
@@ -30928,7 +30928,7 @@
         <v>8</v>
       </c>
       <c r="S341">
-        <v>5.5</v>
+        <v>8.75</v>
       </c>
       <c r="T341" t="s">
         <v>687</v>
@@ -30978,19 +30978,19 @@
     </row>
     <row r="342" spans="1:43">
       <c r="A342" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B342" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E342">
         <v>10</v>
       </c>
       <c r="G342" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H342" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I342" t="s">
         <v>377</v>
@@ -31011,13 +31011,13 @@
         <v>8</v>
       </c>
       <c r="S342">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="T342" t="s">
         <v>687</v>
       </c>
       <c r="U342" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V342">
         <v>0</v>
@@ -31061,25 +31061,25 @@
     </row>
     <row r="343" spans="1:43">
       <c r="A343" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B343" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E343">
         <v>10</v>
       </c>
       <c r="G343" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H343" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I343" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="J343" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="K343">
         <v>1</v>
@@ -31159,16 +31159,16 @@
         <v>266</v>
       </c>
       <c r="I344" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J344" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M344">
         <v>0</v>
@@ -31242,16 +31242,16 @@
         <v>266</v>
       </c>
       <c r="I345" t="s">
-        <v>378</v>
+        <v>115</v>
       </c>
       <c r="J345" t="s">
-        <v>582</v>
+        <v>222</v>
       </c>
       <c r="K345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M345">
         <v>0</v>
@@ -31260,7 +31260,7 @@
         <v>8</v>
       </c>
       <c r="S345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T345" t="s">
         <v>687</v>
@@ -31325,16 +31325,16 @@
         <v>266</v>
       </c>
       <c r="I346" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="J346" t="s">
-        <v>224</v>
+        <v>583</v>
       </c>
       <c r="K346">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M346">
         <v>0</v>
@@ -31408,16 +31408,16 @@
         <v>266</v>
       </c>
       <c r="I347" t="s">
-        <v>379</v>
+        <v>117</v>
       </c>
       <c r="J347" t="s">
-        <v>583</v>
+        <v>224</v>
       </c>
       <c r="K347">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L347">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M347">
         <v>0</v>
@@ -31426,7 +31426,7 @@
         <v>8</v>
       </c>
       <c r="S347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T347" t="s">
         <v>687</v>
@@ -31497,10 +31497,10 @@
         <v>584</v>
       </c>
       <c r="K348">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L348">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M348">
         <v>0</v>
@@ -31559,19 +31559,19 @@
     </row>
     <row r="349" spans="1:43">
       <c r="A349" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B349" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E349">
         <v>10</v>
       </c>
       <c r="G349" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H349" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I349" t="s">
         <v>381</v>
@@ -31580,10 +31580,10 @@
         <v>585</v>
       </c>
       <c r="K349">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L349">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M349">
         <v>0</v>
@@ -31642,10 +31642,10 @@
     </row>
     <row r="350" spans="1:43">
       <c r="A350" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B350" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E350">
         <v>10</v>
@@ -31731,19 +31731,19 @@
         <v>222</v>
       </c>
       <c r="E351">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G351" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H351" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I351" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
       <c r="J351" t="s">
-        <v>223</v>
+        <v>587</v>
       </c>
       <c r="K351">
         <v>1</v>
@@ -31808,25 +31808,25 @@
     </row>
     <row r="352" spans="1:43">
       <c r="A352" t="s">
+        <v>115</v>
+      </c>
+      <c r="B352" t="s">
+        <v>222</v>
+      </c>
+      <c r="E352">
+        <v>20</v>
+      </c>
+      <c r="G352" t="s">
+        <v>255</v>
+      </c>
+      <c r="H352" t="s">
+        <v>266</v>
+      </c>
+      <c r="I352" t="s">
         <v>116</v>
       </c>
-      <c r="B352" t="s">
+      <c r="J352" t="s">
         <v>223</v>
-      </c>
-      <c r="E352">
-        <v>10</v>
-      </c>
-      <c r="G352" t="s">
-        <v>256</v>
-      </c>
-      <c r="H352" t="s">
-        <v>267</v>
-      </c>
-      <c r="I352" t="s">
-        <v>383</v>
-      </c>
-      <c r="J352" t="s">
-        <v>587</v>
       </c>
       <c r="K352">
         <v>1</v>
@@ -31841,13 +31841,13 @@
         <v>8</v>
       </c>
       <c r="S352">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T352" t="s">
         <v>687</v>
       </c>
       <c r="U352" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V352">
         <v>0</v>
@@ -31897,13 +31897,13 @@
         <v>223</v>
       </c>
       <c r="E353">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G353" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H353" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I353" t="s">
         <v>384</v>
@@ -31924,13 +31924,13 @@
         <v>8</v>
       </c>
       <c r="S353">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T353" t="s">
         <v>687</v>
       </c>
       <c r="U353" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V353">
         <v>0</v>
@@ -31974,25 +31974,25 @@
     </row>
     <row r="354" spans="1:43">
       <c r="A354" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B354" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E354">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G354" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H354" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I354" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="J354" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="K354">
         <v>1</v>
@@ -32057,25 +32057,25 @@
     </row>
     <row r="355" spans="1:43">
       <c r="A355" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B355" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E355">
         <v>10</v>
       </c>
       <c r="G355" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H355" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I355" t="s">
-        <v>119</v>
+        <v>362</v>
       </c>
       <c r="J355" t="s">
-        <v>226</v>
+        <v>566</v>
       </c>
       <c r="K355">
         <v>1</v>
@@ -32155,16 +32155,16 @@
         <v>266</v>
       </c>
       <c r="I356" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J356" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M356">
         <v>0</v>
@@ -32238,16 +32238,16 @@
         <v>266</v>
       </c>
       <c r="I357" t="s">
-        <v>385</v>
+        <v>120</v>
       </c>
       <c r="J357" t="s">
-        <v>589</v>
+        <v>227</v>
       </c>
       <c r="K357">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L357">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M357">
         <v>0</v>
@@ -32327,10 +32327,10 @@
         <v>590</v>
       </c>
       <c r="K358">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L358">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M358">
         <v>0</v>
@@ -32410,10 +32410,10 @@
         <v>591</v>
       </c>
       <c r="K359">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L359">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M359">
         <v>0</v>
@@ -32422,7 +32422,7 @@
         <v>8</v>
       </c>
       <c r="S359">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T359" t="s">
         <v>687</v>
@@ -32493,10 +32493,10 @@
         <v>592</v>
       </c>
       <c r="K360">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L360">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M360">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>593</v>
       </c>
       <c r="K361">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L361">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M361">
         <v>0</v>
@@ -32659,10 +32659,10 @@
         <v>594</v>
       </c>
       <c r="K362">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L362">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M362">
         <v>0</v>
@@ -32742,10 +32742,10 @@
         <v>595</v>
       </c>
       <c r="K363">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L363">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M363">
         <v>0</v>
@@ -32754,7 +32754,7 @@
         <v>8</v>
       </c>
       <c r="S363">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T363" t="s">
         <v>687</v>
@@ -32825,10 +32825,10 @@
         <v>596</v>
       </c>
       <c r="K364">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L364">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M364">
         <v>0</v>
@@ -32902,16 +32902,16 @@
         <v>266</v>
       </c>
       <c r="I365" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="J365" t="s">
-        <v>497</v>
+        <v>597</v>
       </c>
       <c r="K365">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L365">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M365">
         <v>0</v>
@@ -32985,16 +32985,16 @@
         <v>266</v>
       </c>
       <c r="I366" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J366" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K366">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L366">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M366">
         <v>0</v>
@@ -33003,7 +33003,7 @@
         <v>8</v>
       </c>
       <c r="S366">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T366" t="s">
         <v>687</v>
@@ -33068,16 +33068,16 @@
         <v>266</v>
       </c>
       <c r="I367" t="s">
-        <v>393</v>
+        <v>292</v>
       </c>
       <c r="J367" t="s">
-        <v>597</v>
+        <v>496</v>
       </c>
       <c r="K367">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L367">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M367">
         <v>0</v>
@@ -33086,7 +33086,7 @@
         <v>8</v>
       </c>
       <c r="S367">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T367" t="s">
         <v>687</v>
@@ -33151,16 +33151,16 @@
         <v>266</v>
       </c>
       <c r="I368" t="s">
-        <v>291</v>
+        <v>394</v>
       </c>
       <c r="J368" t="s">
-        <v>495</v>
+        <v>598</v>
       </c>
       <c r="K368">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L368">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M368">
         <v>0</v>
@@ -33219,31 +33219,31 @@
     </row>
     <row r="369" spans="1:43">
       <c r="A369" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B369" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E369">
         <v>10</v>
       </c>
       <c r="G369" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H369" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I369" t="s">
-        <v>394</v>
+        <v>291</v>
       </c>
       <c r="J369" t="s">
-        <v>598</v>
+        <v>495</v>
       </c>
       <c r="K369">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L369">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M369">
         <v>0</v>
@@ -33252,13 +33252,13 @@
         <v>8</v>
       </c>
       <c r="S369">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="T369" t="s">
         <v>687</v>
       </c>
       <c r="U369" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V369">
         <v>0</v>
@@ -33308,19 +33308,19 @@
         <v>226</v>
       </c>
       <c r="E370">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G370" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H370" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I370" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="J370" t="s">
-        <v>545</v>
+        <v>599</v>
       </c>
       <c r="K370">
         <v>1</v>
@@ -33335,13 +33335,13 @@
         <v>8</v>
       </c>
       <c r="S370">
-        <v>0.0625</v>
+        <v>4.75</v>
       </c>
       <c r="T370" t="s">
         <v>687</v>
       </c>
       <c r="U370" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V370">
         <v>0</v>
@@ -33385,25 +33385,25 @@
     </row>
     <row r="371" spans="1:43">
       <c r="A371" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B371" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E371">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G371" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H371" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I371" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="J371" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="K371">
         <v>1</v>
@@ -33418,13 +33418,13 @@
         <v>8</v>
       </c>
       <c r="S371">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="T371" t="s">
         <v>687</v>
       </c>
       <c r="U371" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V371">
         <v>0</v>
@@ -33468,19 +33468,19 @@
     </row>
     <row r="372" spans="1:43">
       <c r="A372" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B372" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E372">
         <v>10</v>
       </c>
       <c r="G372" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I372" t="s">
         <v>396</v>
@@ -33501,13 +33501,13 @@
         <v>8</v>
       </c>
       <c r="S372">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T372" t="s">
         <v>687</v>
       </c>
       <c r="U372" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V372">
         <v>0</v>
@@ -33557,19 +33557,19 @@
         <v>228</v>
       </c>
       <c r="E373">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G373" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H373" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I373" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="J373" t="s">
-        <v>545</v>
+        <v>601</v>
       </c>
       <c r="K373">
         <v>1</v>
@@ -33584,13 +33584,13 @@
         <v>8</v>
       </c>
       <c r="S373">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T373" t="s">
         <v>687</v>
       </c>
       <c r="U373" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V373">
         <v>0</v>
@@ -33634,25 +33634,25 @@
     </row>
     <row r="374" spans="1:43">
       <c r="A374" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B374" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E374">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G374" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H374" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I374" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="J374" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="K374">
         <v>1</v>
@@ -33667,13 +33667,13 @@
         <v>8</v>
       </c>
       <c r="S374">
-        <v>33.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T374" t="s">
         <v>687</v>
       </c>
       <c r="U374" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V374">
         <v>0</v>
@@ -33717,7 +33717,7 @@
     </row>
     <row r="375" spans="1:43">
       <c r="A375" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B375" t="s">
         <v>229</v>
@@ -33732,10 +33732,10 @@
         <v>267</v>
       </c>
       <c r="I375" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="J375" t="s">
-        <v>229</v>
+        <v>602</v>
       </c>
       <c r="K375">
         <v>1</v>
@@ -33750,13 +33750,13 @@
         <v>8</v>
       </c>
       <c r="S375">
-        <v>1</v>
+        <v>33.5</v>
       </c>
       <c r="T375" t="s">
         <v>687</v>
       </c>
       <c r="U375" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V375">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>229</v>
       </c>
       <c r="E376">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G376" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H376" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I376" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
       <c r="J376" t="s">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="K376">
         <v>1</v>
@@ -33833,13 +33833,13 @@
         <v>8</v>
       </c>
       <c r="S376">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T376" t="s">
         <v>687</v>
       </c>
       <c r="U376" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V376">
         <v>0</v>
@@ -33883,25 +33883,25 @@
     </row>
     <row r="377" spans="1:43">
       <c r="A377" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B377" t="s">
         <v>229</v>
       </c>
       <c r="E377">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G377" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H377" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I377" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="J377" t="s">
-        <v>229</v>
+        <v>546</v>
       </c>
       <c r="K377">
         <v>1</v>
@@ -33916,13 +33916,13 @@
         <v>8</v>
       </c>
       <c r="S377">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T377" t="s">
         <v>687</v>
       </c>
       <c r="U377" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V377">
         <v>0</v>
@@ -33972,19 +33972,19 @@
         <v>229</v>
       </c>
       <c r="E378">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G378" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H378" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I378" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
       <c r="J378" t="s">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="K378">
         <v>1</v>
@@ -33999,13 +33999,13 @@
         <v>8</v>
       </c>
       <c r="S378">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T378" t="s">
         <v>687</v>
       </c>
       <c r="U378" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V378">
         <v>0</v>
@@ -34049,25 +34049,25 @@
     </row>
     <row r="379" spans="1:43">
       <c r="A379" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B379" t="s">
         <v>229</v>
       </c>
       <c r="E379">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G379" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H379" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I379" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="J379" t="s">
-        <v>229</v>
+        <v>546</v>
       </c>
       <c r="K379">
         <v>1</v>
@@ -34082,13 +34082,13 @@
         <v>8</v>
       </c>
       <c r="S379">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T379" t="s">
         <v>687</v>
       </c>
       <c r="U379" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V379">
         <v>0</v>
@@ -34138,19 +34138,19 @@
         <v>229</v>
       </c>
       <c r="E380">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G380" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H380" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I380" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
       <c r="J380" t="s">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="K380">
         <v>1</v>
@@ -34165,13 +34165,13 @@
         <v>8</v>
       </c>
       <c r="S380">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T380" t="s">
         <v>687</v>
       </c>
       <c r="U380" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V380">
         <v>0</v>
@@ -34215,25 +34215,25 @@
     </row>
     <row r="381" spans="1:43">
       <c r="A381" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B381" t="s">
         <v>229</v>
       </c>
       <c r="E381">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G381" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H381" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I381" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="J381" t="s">
-        <v>229</v>
+        <v>546</v>
       </c>
       <c r="K381">
         <v>1</v>
@@ -34248,13 +34248,13 @@
         <v>8</v>
       </c>
       <c r="S381">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T381" t="s">
         <v>687</v>
       </c>
       <c r="U381" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V381">
         <v>0</v>
@@ -34304,19 +34304,19 @@
         <v>229</v>
       </c>
       <c r="E382">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G382" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H382" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I382" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
       <c r="J382" t="s">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="K382">
         <v>1</v>
@@ -34331,13 +34331,13 @@
         <v>8</v>
       </c>
       <c r="S382">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T382" t="s">
         <v>687</v>
       </c>
       <c r="U382" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V382">
         <v>0</v>
@@ -34381,25 +34381,25 @@
     </row>
     <row r="383" spans="1:43">
       <c r="A383" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B383" t="s">
         <v>229</v>
       </c>
       <c r="E383">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G383" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H383" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I383" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="J383" t="s">
-        <v>229</v>
+        <v>546</v>
       </c>
       <c r="K383">
         <v>1</v>
@@ -34414,13 +34414,13 @@
         <v>8</v>
       </c>
       <c r="S383">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T383" t="s">
         <v>687</v>
       </c>
       <c r="U383" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V383">
         <v>0</v>
@@ -34470,19 +34470,19 @@
         <v>229</v>
       </c>
       <c r="E384">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G384" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H384" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I384" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
       <c r="J384" t="s">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="K384">
         <v>1</v>
@@ -34497,13 +34497,13 @@
         <v>8</v>
       </c>
       <c r="S384">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T384" t="s">
         <v>687</v>
       </c>
       <c r="U384" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V384">
         <v>0</v>
@@ -34547,25 +34547,25 @@
     </row>
     <row r="385" spans="1:43">
       <c r="A385" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B385" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E385">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G385" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H385" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I385" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="J385" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="K385">
         <v>1</v>
@@ -34580,13 +34580,13 @@
         <v>8</v>
       </c>
       <c r="S385">
-        <v>33.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T385" t="s">
         <v>687</v>
       </c>
       <c r="U385" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V385">
         <v>0</v>
@@ -34630,7 +34630,7 @@
     </row>
     <row r="386" spans="1:43">
       <c r="A386" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B386" t="s">
         <v>230</v>
@@ -34645,10 +34645,10 @@
         <v>267</v>
       </c>
       <c r="I386" t="s">
-        <v>128</v>
+        <v>398</v>
       </c>
       <c r="J386" t="s">
-        <v>230</v>
+        <v>602</v>
       </c>
       <c r="K386">
         <v>1</v>
@@ -34663,13 +34663,13 @@
         <v>8</v>
       </c>
       <c r="S386">
-        <v>1</v>
+        <v>33.5</v>
       </c>
       <c r="T386" t="s">
         <v>687</v>
       </c>
       <c r="U386" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V386">
         <v>0</v>
@@ -34719,19 +34719,19 @@
         <v>230</v>
       </c>
       <c r="E387">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G387" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H387" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I387" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="J387" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="K387">
         <v>1</v>
@@ -34746,13 +34746,13 @@
         <v>8</v>
       </c>
       <c r="S387">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T387" t="s">
         <v>687</v>
       </c>
       <c r="U387" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V387">
         <v>0</v>
@@ -34796,25 +34796,25 @@
     </row>
     <row r="388" spans="1:43">
       <c r="A388" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B388" t="s">
         <v>230</v>
       </c>
       <c r="E388">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G388" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H388" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I388" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="J388" t="s">
-        <v>230</v>
+        <v>546</v>
       </c>
       <c r="K388">
         <v>1</v>
@@ -34829,13 +34829,13 @@
         <v>8</v>
       </c>
       <c r="S388">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T388" t="s">
         <v>687</v>
       </c>
       <c r="U388" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V388">
         <v>0</v>
@@ -34885,19 +34885,19 @@
         <v>230</v>
       </c>
       <c r="E389">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G389" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H389" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I389" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="J389" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="K389">
         <v>1</v>
@@ -34912,13 +34912,13 @@
         <v>8</v>
       </c>
       <c r="S389">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T389" t="s">
         <v>687</v>
       </c>
       <c r="U389" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V389">
         <v>0</v>
@@ -34962,25 +34962,25 @@
     </row>
     <row r="390" spans="1:43">
       <c r="A390" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B390" t="s">
         <v>230</v>
       </c>
       <c r="E390">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G390" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H390" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I390" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="J390" t="s">
-        <v>230</v>
+        <v>546</v>
       </c>
       <c r="K390">
         <v>1</v>
@@ -34995,13 +34995,13 @@
         <v>8</v>
       </c>
       <c r="S390">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T390" t="s">
         <v>687</v>
       </c>
       <c r="U390" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V390">
         <v>0</v>
@@ -35051,19 +35051,19 @@
         <v>230</v>
       </c>
       <c r="E391">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G391" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H391" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I391" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="J391" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="K391">
         <v>1</v>
@@ -35078,13 +35078,13 @@
         <v>8</v>
       </c>
       <c r="S391">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T391" t="s">
         <v>687</v>
       </c>
       <c r="U391" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V391">
         <v>0</v>
@@ -35128,25 +35128,25 @@
     </row>
     <row r="392" spans="1:43">
       <c r="A392" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B392" t="s">
         <v>230</v>
       </c>
       <c r="E392">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G392" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H392" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I392" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="J392" t="s">
-        <v>230</v>
+        <v>546</v>
       </c>
       <c r="K392">
         <v>1</v>
@@ -35161,13 +35161,13 @@
         <v>8</v>
       </c>
       <c r="S392">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T392" t="s">
         <v>687</v>
       </c>
       <c r="U392" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V392">
         <v>0</v>
@@ -35217,19 +35217,19 @@
         <v>230</v>
       </c>
       <c r="E393">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G393" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H393" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I393" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="J393" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="K393">
         <v>1</v>
@@ -35244,13 +35244,13 @@
         <v>8</v>
       </c>
       <c r="S393">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T393" t="s">
         <v>687</v>
       </c>
       <c r="U393" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V393">
         <v>0</v>
@@ -35294,25 +35294,25 @@
     </row>
     <row r="394" spans="1:43">
       <c r="A394" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B394" t="s">
         <v>230</v>
       </c>
       <c r="E394">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G394" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H394" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I394" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="J394" t="s">
-        <v>230</v>
+        <v>546</v>
       </c>
       <c r="K394">
         <v>1</v>
@@ -35327,13 +35327,13 @@
         <v>8</v>
       </c>
       <c r="S394">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T394" t="s">
         <v>687</v>
       </c>
       <c r="U394" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V394">
         <v>0</v>
@@ -35383,19 +35383,19 @@
         <v>230</v>
       </c>
       <c r="E395">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G395" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H395" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I395" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="J395" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="K395">
         <v>1</v>
@@ -35410,13 +35410,13 @@
         <v>8</v>
       </c>
       <c r="S395">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T395" t="s">
         <v>687</v>
       </c>
       <c r="U395" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V395">
         <v>0</v>
@@ -35460,25 +35460,25 @@
     </row>
     <row r="396" spans="1:43">
       <c r="A396" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B396" t="s">
         <v>230</v>
       </c>
       <c r="E396">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G396" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H396" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I396" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="J396" t="s">
-        <v>230</v>
+        <v>546</v>
       </c>
       <c r="K396">
         <v>1</v>
@@ -35493,13 +35493,13 @@
         <v>8</v>
       </c>
       <c r="S396">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T396" t="s">
         <v>687</v>
       </c>
       <c r="U396" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V396">
         <v>0</v>
@@ -35549,19 +35549,19 @@
         <v>230</v>
       </c>
       <c r="E397">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G397" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H397" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I397" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="J397" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="K397">
         <v>1</v>
@@ -35576,13 +35576,13 @@
         <v>8</v>
       </c>
       <c r="S397">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T397" t="s">
         <v>687</v>
       </c>
       <c r="U397" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V397">
         <v>0</v>
@@ -35626,25 +35626,25 @@
     </row>
     <row r="398" spans="1:43">
       <c r="A398" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B398" t="s">
         <v>230</v>
       </c>
       <c r="E398">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G398" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H398" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I398" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="J398" t="s">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="K398">
         <v>1</v>
@@ -35659,13 +35659,13 @@
         <v>8</v>
       </c>
       <c r="S398">
-        <v>33.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T398" t="s">
         <v>687</v>
       </c>
       <c r="U398" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V398">
         <v>0</v>
@@ -35709,7 +35709,7 @@
     </row>
     <row r="399" spans="1:43">
       <c r="A399" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B399" t="s">
         <v>230</v>
@@ -35724,10 +35724,10 @@
         <v>267</v>
       </c>
       <c r="I399" t="s">
-        <v>135</v>
+        <v>398</v>
       </c>
       <c r="J399" t="s">
-        <v>230</v>
+        <v>602</v>
       </c>
       <c r="K399">
         <v>1</v>
@@ -35742,13 +35742,13 @@
         <v>8</v>
       </c>
       <c r="S399">
-        <v>1</v>
+        <v>33.5</v>
       </c>
       <c r="T399" t="s">
         <v>687</v>
       </c>
       <c r="U399" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V399">
         <v>0</v>
@@ -35798,19 +35798,19 @@
         <v>230</v>
       </c>
       <c r="E400">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G400" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H400" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I400" t="s">
-        <v>341</v>
+        <v>135</v>
       </c>
       <c r="J400" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="K400">
         <v>1</v>
@@ -35825,13 +35825,13 @@
         <v>8</v>
       </c>
       <c r="S400">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T400" t="s">
         <v>687</v>
       </c>
       <c r="U400" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V400">
         <v>0</v>
@@ -35875,25 +35875,25 @@
     </row>
     <row r="401" spans="1:43">
       <c r="A401" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B401" t="s">
         <v>230</v>
       </c>
       <c r="E401">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G401" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H401" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I401" t="s">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="J401" t="s">
-        <v>230</v>
+        <v>546</v>
       </c>
       <c r="K401">
         <v>1</v>
@@ -35908,13 +35908,13 @@
         <v>8</v>
       </c>
       <c r="S401">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T401" t="s">
         <v>687</v>
       </c>
       <c r="U401" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V401">
         <v>0</v>
@@ -35964,19 +35964,19 @@
         <v>230</v>
       </c>
       <c r="E402">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G402" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H402" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I402" t="s">
-        <v>341</v>
+        <v>135</v>
       </c>
       <c r="J402" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="K402">
         <v>1</v>
@@ -35991,13 +35991,13 @@
         <v>8</v>
       </c>
       <c r="S402">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T402" t="s">
         <v>687</v>
       </c>
       <c r="U402" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V402">
         <v>0</v>
@@ -36041,25 +36041,25 @@
     </row>
     <row r="403" spans="1:43">
       <c r="A403" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B403" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E403">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G403" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H403" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I403" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J403" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K403">
         <v>1</v>
@@ -36074,13 +36074,13 @@
         <v>8</v>
       </c>
       <c r="S403">
-        <v>9.25</v>
+        <v>0.0625</v>
       </c>
       <c r="T403" t="s">
         <v>687</v>
       </c>
       <c r="U403" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V403">
         <v>0</v>
@@ -36130,19 +36130,19 @@
         <v>231</v>
       </c>
       <c r="E404">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G404" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H404" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I404" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="J404" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K404">
         <v>1</v>
@@ -36157,13 +36157,13 @@
         <v>8</v>
       </c>
       <c r="S404">
-        <v>1</v>
+        <v>9.25</v>
       </c>
       <c r="T404" t="s">
         <v>687</v>
       </c>
       <c r="U404" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V404">
         <v>0</v>
@@ -36207,25 +36207,25 @@
     </row>
     <row r="405" spans="1:43">
       <c r="A405" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B405" t="s">
         <v>231</v>
       </c>
       <c r="E405">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G405" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H405" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I405" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J405" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="K405">
         <v>1</v>
@@ -36240,13 +36240,13 @@
         <v>8</v>
       </c>
       <c r="S405">
-        <v>17.375</v>
+        <v>1</v>
       </c>
       <c r="T405" t="s">
         <v>687</v>
       </c>
       <c r="U405" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V405">
         <v>0</v>
@@ -36296,19 +36296,19 @@
         <v>231</v>
       </c>
       <c r="E406">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G406" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H406" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I406" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="J406" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K406">
         <v>1</v>
@@ -36323,13 +36323,13 @@
         <v>8</v>
       </c>
       <c r="S406">
-        <v>1</v>
+        <v>17.375</v>
       </c>
       <c r="T406" t="s">
         <v>687</v>
       </c>
       <c r="U406" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V406">
         <v>0</v>
@@ -36373,25 +36373,25 @@
     </row>
     <row r="407" spans="1:43">
       <c r="A407" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B407" t="s">
         <v>231</v>
       </c>
       <c r="E407">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G407" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H407" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I407" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J407" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="K407">
         <v>1</v>
@@ -36406,13 +36406,13 @@
         <v>8</v>
       </c>
       <c r="S407">
-        <v>6.3125</v>
+        <v>1</v>
       </c>
       <c r="T407" t="s">
         <v>687</v>
       </c>
       <c r="U407" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V407">
         <v>0</v>
@@ -36462,19 +36462,19 @@
         <v>231</v>
       </c>
       <c r="E408">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G408" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H408" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I408" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="J408" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K408">
         <v>1</v>
@@ -36489,13 +36489,13 @@
         <v>8</v>
       </c>
       <c r="S408">
-        <v>1</v>
+        <v>6.3125</v>
       </c>
       <c r="T408" t="s">
         <v>687</v>
       </c>
       <c r="U408" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V408">
         <v>0</v>
@@ -36539,25 +36539,25 @@
     </row>
     <row r="409" spans="1:43">
       <c r="A409" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B409" t="s">
         <v>231</v>
       </c>
       <c r="E409">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G409" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H409" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I409" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J409" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="K409">
         <v>1</v>
@@ -36572,13 +36572,13 @@
         <v>8</v>
       </c>
       <c r="S409">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T409" t="s">
         <v>687</v>
       </c>
       <c r="U409" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V409">
         <v>0</v>
@@ -36628,19 +36628,19 @@
         <v>231</v>
       </c>
       <c r="E410">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G410" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H410" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I410" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="J410" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K410">
         <v>1</v>
@@ -36655,13 +36655,13 @@
         <v>8</v>
       </c>
       <c r="S410">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T410" t="s">
         <v>687</v>
       </c>
       <c r="U410" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V410">
         <v>0</v>
@@ -36705,25 +36705,25 @@
     </row>
     <row r="411" spans="1:43">
       <c r="A411" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B411" t="s">
         <v>231</v>
       </c>
       <c r="E411">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G411" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H411" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I411" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J411" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="K411">
         <v>1</v>
@@ -36738,13 +36738,13 @@
         <v>8</v>
       </c>
       <c r="S411">
-        <v>17.375</v>
+        <v>1</v>
       </c>
       <c r="T411" t="s">
         <v>687</v>
       </c>
       <c r="U411" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V411">
         <v>0</v>
@@ -36794,19 +36794,19 @@
         <v>231</v>
       </c>
       <c r="E412">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G412" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H412" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I412" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="J412" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K412">
         <v>1</v>
@@ -36821,13 +36821,13 @@
         <v>8</v>
       </c>
       <c r="S412">
-        <v>1</v>
+        <v>17.375</v>
       </c>
       <c r="T412" t="s">
         <v>687</v>
       </c>
       <c r="U412" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V412">
         <v>0</v>
@@ -36871,25 +36871,25 @@
     </row>
     <row r="413" spans="1:43">
       <c r="A413" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B413" t="s">
         <v>231</v>
       </c>
       <c r="E413">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G413" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H413" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I413" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J413" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="K413">
         <v>1</v>
@@ -36904,13 +36904,13 @@
         <v>8</v>
       </c>
       <c r="S413">
-        <v>7.5625</v>
+        <v>1</v>
       </c>
       <c r="T413" t="s">
         <v>687</v>
       </c>
       <c r="U413" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V413">
         <v>0</v>
@@ -36960,19 +36960,19 @@
         <v>231</v>
       </c>
       <c r="E414">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G414" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H414" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I414" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="J414" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K414">
         <v>1</v>
@@ -36987,13 +36987,13 @@
         <v>8</v>
       </c>
       <c r="S414">
-        <v>1</v>
+        <v>7.5625</v>
       </c>
       <c r="T414" t="s">
         <v>687</v>
       </c>
       <c r="U414" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V414">
         <v>0</v>
@@ -37037,25 +37037,25 @@
     </row>
     <row r="415" spans="1:43">
       <c r="A415" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B415" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="E415">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G415" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H415" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I415" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="J415" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="K415">
         <v>1</v>
@@ -37070,13 +37070,13 @@
         <v>8</v>
       </c>
       <c r="S415">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T415" t="s">
         <v>687</v>
       </c>
       <c r="U415" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V415">
         <v>0</v>
@@ -37126,19 +37126,19 @@
         <v>201</v>
       </c>
       <c r="E416">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G416" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H416" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I416" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="J416" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="K416">
         <v>1</v>
@@ -37153,13 +37153,13 @@
         <v>8</v>
       </c>
       <c r="S416">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T416" t="s">
         <v>687</v>
       </c>
       <c r="U416" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V416">
         <v>0</v>
@@ -37203,25 +37203,25 @@
     </row>
     <row r="417" spans="1:43">
       <c r="A417" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B417" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="E417">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G417" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H417" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I417" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="J417" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="K417">
         <v>1</v>
@@ -37242,7 +37242,7 @@
         <v>687</v>
       </c>
       <c r="U417" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V417">
         <v>0</v>
@@ -37292,19 +37292,19 @@
         <v>232</v>
       </c>
       <c r="E418">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G418" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H418" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I418" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J418" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K418">
         <v>1</v>
@@ -37319,13 +37319,13 @@
         <v>8</v>
       </c>
       <c r="S418">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T418" t="s">
         <v>687</v>
       </c>
       <c r="U418" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V418">
         <v>0</v>
@@ -37369,25 +37369,25 @@
     </row>
     <row r="419" spans="1:43">
       <c r="A419" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B419" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E419">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G419" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H419" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I419" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="J419" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="K419">
         <v>1</v>
@@ -37402,13 +37402,13 @@
         <v>8</v>
       </c>
       <c r="S419">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T419" t="s">
         <v>687</v>
       </c>
       <c r="U419" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V419">
         <v>0</v>
@@ -37458,19 +37458,19 @@
         <v>233</v>
       </c>
       <c r="E420">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G420" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H420" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I420" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="J420" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="K420">
         <v>1</v>
@@ -37485,13 +37485,13 @@
         <v>8</v>
       </c>
       <c r="S420">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T420" t="s">
         <v>687</v>
       </c>
       <c r="U420" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V420">
         <v>0</v>
@@ -37541,19 +37541,19 @@
         <v>233</v>
       </c>
       <c r="E421">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G421" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H421" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I421" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="J421" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="K421">
         <v>1</v>
@@ -37568,13 +37568,13 @@
         <v>8</v>
       </c>
       <c r="S421">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T421" t="s">
         <v>687</v>
       </c>
       <c r="U421" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V421">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>233</v>
       </c>
       <c r="E422">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G422" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H422" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I422" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="J422" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="K422">
         <v>1</v>
@@ -37651,13 +37651,13 @@
         <v>8</v>
       </c>
       <c r="S422">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T422" t="s">
         <v>687</v>
       </c>
       <c r="U422" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V422">
         <v>0</v>
@@ -37701,25 +37701,25 @@
     </row>
     <row r="423" spans="1:43">
       <c r="A423" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B423" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E423">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G423" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H423" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I423" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="J423" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="K423">
         <v>1</v>
@@ -37734,13 +37734,13 @@
         <v>8</v>
       </c>
       <c r="S423">
-        <v>5</v>
+        <v>0.0625</v>
       </c>
       <c r="T423" t="s">
         <v>687</v>
       </c>
       <c r="U423" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V423">
         <v>0</v>
@@ -37790,19 +37790,19 @@
         <v>234</v>
       </c>
       <c r="E424">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G424" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H424" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I424" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="J424" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="K424">
         <v>1</v>
@@ -37817,13 +37817,13 @@
         <v>8</v>
       </c>
       <c r="S424">
-        <v>0.0625</v>
+        <v>5</v>
       </c>
       <c r="T424" t="s">
         <v>687</v>
       </c>
       <c r="U424" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V424">
         <v>0</v>
@@ -37867,25 +37867,25 @@
     </row>
     <row r="425" spans="1:43">
       <c r="A425" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B425" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E425">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G425" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H425" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I425" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="J425" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="K425">
         <v>1</v>
@@ -37900,13 +37900,13 @@
         <v>8</v>
       </c>
       <c r="S425">
-        <v>2.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T425" t="s">
         <v>687</v>
       </c>
       <c r="U425" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V425">
         <v>0</v>
@@ -37956,19 +37956,19 @@
         <v>235</v>
       </c>
       <c r="E426">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G426" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H426" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I426" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="J426" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="K426">
         <v>1</v>
@@ -37983,13 +37983,13 @@
         <v>8</v>
       </c>
       <c r="S426">
-        <v>0.0625</v>
+        <v>2.5</v>
       </c>
       <c r="T426" t="s">
         <v>687</v>
       </c>
       <c r="U426" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V426">
         <v>0</v>
@@ -38033,25 +38033,25 @@
     </row>
     <row r="427" spans="1:43">
       <c r="A427" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B427" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E427">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G427" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H427" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I427" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="J427" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="K427">
         <v>1</v>
@@ -38066,13 +38066,13 @@
         <v>8</v>
       </c>
       <c r="S427">
-        <v>28.8125</v>
+        <v>0.0625</v>
       </c>
       <c r="T427" t="s">
         <v>687</v>
       </c>
       <c r="U427" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V427">
         <v>0</v>
@@ -38122,19 +38122,19 @@
         <v>236</v>
       </c>
       <c r="E428">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G428" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H428" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I428" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="J428" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="K428">
         <v>1</v>
@@ -38149,13 +38149,13 @@
         <v>8</v>
       </c>
       <c r="S428">
-        <v>0.0625</v>
+        <v>28.8125</v>
       </c>
       <c r="T428" t="s">
         <v>687</v>
       </c>
       <c r="U428" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V428">
         <v>0</v>
@@ -38199,25 +38199,25 @@
     </row>
     <row r="429" spans="1:43">
       <c r="A429" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B429" t="s">
         <v>236</v>
       </c>
       <c r="E429">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G429" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H429" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I429" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="J429" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="K429">
         <v>1</v>
@@ -38232,13 +38232,13 @@
         <v>8</v>
       </c>
       <c r="S429">
-        <v>3.375</v>
+        <v>0.0625</v>
       </c>
       <c r="T429" t="s">
         <v>687</v>
       </c>
       <c r="U429" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V429">
         <v>0</v>
@@ -38288,19 +38288,19 @@
         <v>236</v>
       </c>
       <c r="E430">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G430" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H430" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I430" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="J430" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="K430">
         <v>1</v>
@@ -38315,13 +38315,13 @@
         <v>8</v>
       </c>
       <c r="S430">
-        <v>0.0625</v>
+        <v>3.375</v>
       </c>
       <c r="T430" t="s">
         <v>687</v>
       </c>
       <c r="U430" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V430">
         <v>0</v>
@@ -38365,25 +38365,25 @@
     </row>
     <row r="431" spans="1:43">
       <c r="A431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B431" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E431">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G431" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H431" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I431" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="J431" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="K431">
         <v>1</v>
@@ -38398,13 +38398,13 @@
         <v>8</v>
       </c>
       <c r="S431">
-        <v>10.25</v>
+        <v>0.0625</v>
       </c>
       <c r="T431" t="s">
         <v>687</v>
       </c>
       <c r="U431" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V431">
         <v>0</v>
@@ -38454,19 +38454,19 @@
         <v>237</v>
       </c>
       <c r="E432">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G432" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H432" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I432" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="J432" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
       <c r="K432">
         <v>1</v>
@@ -38481,13 +38481,13 @@
         <v>8</v>
       </c>
       <c r="S432">
-        <v>0.0625</v>
+        <v>10.25</v>
       </c>
       <c r="T432" t="s">
         <v>687</v>
       </c>
       <c r="U432" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V432">
         <v>0</v>
@@ -38531,25 +38531,25 @@
     </row>
     <row r="433" spans="1:43">
       <c r="A433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B433" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E433">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G433" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H433" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I433" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="J433" t="s">
-        <v>606</v>
+        <v>546</v>
       </c>
       <c r="K433">
         <v>1</v>
@@ -38564,13 +38564,13 @@
         <v>8</v>
       </c>
       <c r="S433">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T433" t="s">
         <v>687</v>
       </c>
       <c r="U433" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V433">
         <v>0</v>
@@ -38635,10 +38635,10 @@
         <v>607</v>
       </c>
       <c r="K434">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L434">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M434">
         <v>0</v>
@@ -38718,10 +38718,10 @@
         <v>608</v>
       </c>
       <c r="K435">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L435">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M435">
         <v>0</v>
@@ -38730,7 +38730,7 @@
         <v>8</v>
       </c>
       <c r="S435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T435" t="s">
         <v>687</v>
@@ -38801,10 +38801,10 @@
         <v>609</v>
       </c>
       <c r="K436">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L436">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M436">
         <v>0</v>
@@ -38813,7 +38813,7 @@
         <v>8</v>
       </c>
       <c r="S436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T436" t="s">
         <v>687</v>
@@ -38884,10 +38884,10 @@
         <v>610</v>
       </c>
       <c r="K437">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L437">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M437">
         <v>0</v>
@@ -38967,10 +38967,10 @@
         <v>611</v>
       </c>
       <c r="K438">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L438">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M438">
         <v>0</v>
@@ -39044,16 +39044,16 @@
         <v>266</v>
       </c>
       <c r="I439" t="s">
-        <v>153</v>
+        <v>408</v>
       </c>
       <c r="J439" t="s">
-        <v>239</v>
+        <v>612</v>
       </c>
       <c r="K439">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L439">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M439">
         <v>0</v>
@@ -39127,16 +39127,16 @@
         <v>266</v>
       </c>
       <c r="I440" t="s">
-        <v>408</v>
+        <v>153</v>
       </c>
       <c r="J440" t="s">
-        <v>612</v>
+        <v>239</v>
       </c>
       <c r="K440">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L440">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M440">
         <v>0</v>
@@ -39145,7 +39145,7 @@
         <v>8</v>
       </c>
       <c r="S440">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T440" t="s">
         <v>687</v>
@@ -39216,10 +39216,10 @@
         <v>613</v>
       </c>
       <c r="K441">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L441">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M441">
         <v>0</v>
@@ -39228,7 +39228,7 @@
         <v>8</v>
       </c>
       <c r="S441">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T441" t="s">
         <v>687</v>
@@ -39299,10 +39299,10 @@
         <v>614</v>
       </c>
       <c r="K442">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L442">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M442">
         <v>0</v>
@@ -39382,10 +39382,10 @@
         <v>615</v>
       </c>
       <c r="K443">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L443">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M443">
         <v>0</v>
@@ -39465,10 +39465,10 @@
         <v>616</v>
       </c>
       <c r="K444">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L444">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M444">
         <v>0</v>
@@ -39477,7 +39477,7 @@
         <v>8</v>
       </c>
       <c r="S444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T444" t="s">
         <v>687</v>
@@ -39548,10 +39548,10 @@
         <v>617</v>
       </c>
       <c r="K445">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L445">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M445">
         <v>0</v>
@@ -39560,7 +39560,7 @@
         <v>8</v>
       </c>
       <c r="S445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T445" t="s">
         <v>687</v>
@@ -39610,19 +39610,19 @@
     </row>
     <row r="446" spans="1:43">
       <c r="A446" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B446" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E446">
         <v>10</v>
       </c>
       <c r="G446" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H446" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I446" t="s">
         <v>414</v>
@@ -39631,10 +39631,10 @@
         <v>618</v>
       </c>
       <c r="K446">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L446">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M446">
         <v>0</v>
@@ -39643,13 +39643,13 @@
         <v>8</v>
       </c>
       <c r="S446">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T446" t="s">
         <v>687</v>
       </c>
       <c r="U446" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V446">
         <v>0</v>
@@ -39699,19 +39699,19 @@
         <v>239</v>
       </c>
       <c r="E447">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G447" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H447" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I447" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="J447" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="K447">
         <v>1</v>
@@ -39726,13 +39726,13 @@
         <v>8</v>
       </c>
       <c r="S447">
-        <v>0.0625</v>
+        <v>3</v>
       </c>
       <c r="T447" t="s">
         <v>687</v>
       </c>
       <c r="U447" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V447">
         <v>0</v>
@@ -39776,25 +39776,25 @@
     </row>
     <row r="448" spans="1:43">
       <c r="A448" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B448" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E448">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G448" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H448" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I448" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="J448" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="K448">
         <v>1</v>
@@ -39809,13 +39809,13 @@
         <v>8</v>
       </c>
       <c r="S448">
-        <v>5.25</v>
+        <v>0.0625</v>
       </c>
       <c r="T448" t="s">
         <v>687</v>
       </c>
       <c r="U448" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V448">
         <v>0</v>
@@ -39865,19 +39865,19 @@
         <v>240</v>
       </c>
       <c r="E449">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G449" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H449" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I449" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="J449" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="K449">
         <v>1</v>
@@ -39892,13 +39892,13 @@
         <v>8</v>
       </c>
       <c r="S449">
-        <v>0.0625</v>
+        <v>5.25</v>
       </c>
       <c r="T449" t="s">
         <v>687</v>
       </c>
       <c r="U449" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V449">
         <v>0</v>
@@ -39942,25 +39942,25 @@
     </row>
     <row r="450" spans="1:43">
       <c r="A450" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B450" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E450">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G450" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H450" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I450" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="J450" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="K450">
         <v>1</v>
@@ -39975,13 +39975,13 @@
         <v>8</v>
       </c>
       <c r="S450">
-        <v>12.5</v>
+        <v>0.0625</v>
       </c>
       <c r="T450" t="s">
         <v>687</v>
       </c>
       <c r="U450" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="V450">
         <v>0</v>
@@ -40025,7 +40025,7 @@
     </row>
     <row r="451" spans="1:43">
       <c r="A451" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B451" t="s">
         <v>241</v>
@@ -40040,10 +40040,10 @@
         <v>267</v>
       </c>
       <c r="I451" t="s">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="J451" t="s">
-        <v>241</v>
+        <v>604</v>
       </c>
       <c r="K451">
         <v>1</v>
@@ -40058,13 +40058,13 @@
         <v>8</v>
       </c>
       <c r="S451">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="T451" t="s">
         <v>687</v>
       </c>
       <c r="U451" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="V451">
         <v>0</v>
@@ -40114,19 +40114,19 @@
         <v>241</v>
       </c>
       <c r="E452">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G452" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H452" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I452" t="s">
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="J452" t="s">
-        <v>545</v>
+        <v>241</v>
       </c>
       <c r="K452">
         <v>1</v>
@@ -40141,13 +40141,13 @@
         <v>8</v>
       </c>
       <c r="S452">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T452" t="s">
         <v>687</v>
       </c>
       <c r="U452" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V452">
         <v>0</v>
@@ -40191,25 +40191,25 @@
     </row>
     <row r="453" spans="1:43">
       <c r="A453" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B453" t="s">
         <v>241</v>
       </c>
       <c r="E453">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G453" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H453" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I453" t="s">
-        <v>155</v>
+        <v>342</v>
       </c>
       <c r="J453" t="s">
-        <v>241</v>
+        <v>546</v>
       </c>
       <c r="K453">
         <v>1</v>
@@ -40224,13 +40224,13 @@
         <v>8</v>
       </c>
       <c r="S453">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T453" t="s">
         <v>687</v>
       </c>
       <c r="U453" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V453">
         <v>0</v>
@@ -40280,19 +40280,19 @@
         <v>241</v>
       </c>
       <c r="E454">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G454" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H454" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I454" t="s">
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="J454" t="s">
-        <v>545</v>
+        <v>241</v>
       </c>
       <c r="K454">
         <v>1</v>
@@ -40307,13 +40307,13 @@
         <v>8</v>
       </c>
       <c r="S454">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="T454" t="s">
         <v>687</v>
       </c>
       <c r="U454" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V454">
         <v>0</v>
@@ -40357,25 +40357,25 @@
     </row>
     <row r="455" spans="1:43">
       <c r="A455" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B455" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E455">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G455" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H455" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I455" t="s">
-        <v>415</v>
+        <v>342</v>
       </c>
       <c r="J455" t="s">
-        <v>619</v>
+        <v>546</v>
       </c>
       <c r="K455">
         <v>1</v>
@@ -40390,13 +40390,13 @@
         <v>8</v>
       </c>
       <c r="S455">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="T455" t="s">
         <v>687</v>
       </c>
       <c r="U455" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V455">
         <v>0</v>
@@ -40461,10 +40461,10 @@
         <v>620</v>
       </c>
       <c r="K456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M456">
         <v>0</v>
@@ -40544,10 +40544,10 @@
         <v>621</v>
       </c>
       <c r="K457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M457">
         <v>0</v>
@@ -40556,7 +40556,7 @@
         <v>8</v>
       </c>
       <c r="S457">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T457" t="s">
         <v>687</v>
@@ -40627,10 +40627,10 @@
         <v>622</v>
       </c>
       <c r="K458">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L458">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M458">
         <v>0</v>
@@ -40710,10 +40710,10 @@
         <v>623</v>
       </c>
       <c r="K459">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L459">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M459">
         <v>0</v>
@@ -40793,10 +40793,10 @@
         <v>624</v>
       </c>
       <c r="K460">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L460">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M460">
         <v>0</v>
@@ -40805,7 +40805,7 @@
         <v>8</v>
       </c>
       <c r="S460">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T460" t="s">
         <v>687</v>
@@ -40870,16 +40870,16 @@
         <v>266</v>
       </c>
       <c r="I461" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
       <c r="J461" t="s">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="K461">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L461">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M461">
         <v>0</v>
@@ -40888,7 +40888,7 @@
         <v>8</v>
       </c>
       <c r="S461">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T461" t="s">
         <v>687</v>
@@ -40953,16 +40953,16 @@
         <v>266</v>
       </c>
       <c r="I462" t="s">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="J462" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="K462">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L462">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M462">
         <v>0</v>
@@ -41042,10 +41042,10 @@
         <v>626</v>
       </c>
       <c r="K463">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L463">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M463">
         <v>0</v>
@@ -41119,16 +41119,16 @@
         <v>266</v>
       </c>
       <c r="I464" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J464" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K464">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L464">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M464">
         <v>0</v>
@@ -41208,10 +41208,10 @@
         <v>627</v>
       </c>
       <c r="K465">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L465">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M465">
         <v>0</v>
@@ -41291,10 +41291,10 @@
         <v>628</v>
       </c>
       <c r="K466">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L466">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M466">
         <v>0</v>
@@ -41374,10 +41374,10 @@
         <v>629</v>
       </c>
       <c r="K467">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L467">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M467">
         <v>0</v>
@@ -41451,16 +41451,16 @@
         <v>266</v>
       </c>
       <c r="I468" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J468" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K468">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L468">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M468">
         <v>0</v>
@@ -41540,10 +41540,10 @@
         <v>630</v>
       </c>
       <c r="K469">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L469">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M469">
         <v>0</v>
@@ -41623,10 +41623,10 @@
         <v>631</v>
       </c>
       <c r="K470">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L470">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M470">
         <v>0</v>
@@ -41706,10 +41706,10 @@
         <v>243</v>
       </c>
       <c r="K471">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L471">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M471">
         <v>0</v>
@@ -41789,10 +41789,10 @@
         <v>632</v>
       </c>
       <c r="K472">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L472">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M472">
         <v>0</v>
@@ -41872,10 +41872,10 @@
         <v>629</v>
       </c>
       <c r="K473">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L473">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M473">
         <v>0</v>
@@ -41955,10 +41955,10 @@
         <v>633</v>
       </c>
       <c r="K474">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L474">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M474">
         <v>0</v>
@@ -42038,10 +42038,10 @@
         <v>634</v>
       </c>
       <c r="K475">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L475">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M475">
         <v>0</v>
@@ -42121,10 +42121,10 @@
         <v>635</v>
       </c>
       <c r="K476">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L476">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M476">
         <v>0</v>
@@ -42204,10 +42204,10 @@
         <v>636</v>
       </c>
       <c r="K477">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L477">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M477">
         <v>0</v>
@@ -42287,10 +42287,10 @@
         <v>637</v>
       </c>
       <c r="K478">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L478">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M478">
         <v>0</v>
@@ -42370,10 +42370,10 @@
         <v>638</v>
       </c>
       <c r="K479">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L479">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M479">
         <v>0</v>
@@ -42453,10 +42453,10 @@
         <v>639</v>
       </c>
       <c r="K480">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L480">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M480">
         <v>0</v>
@@ -42536,10 +42536,10 @@
         <v>640</v>
       </c>
       <c r="K481">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L481">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M481">
         <v>0</v>
@@ -42619,10 +42619,10 @@
         <v>641</v>
       </c>
       <c r="K482">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L482">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M482">
         <v>0</v>
@@ -42702,10 +42702,10 @@
         <v>642</v>
       </c>
       <c r="K483">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L483">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M483">
         <v>0</v>
@@ -42782,13 +42782,13 @@
         <v>439</v>
       </c>
       <c r="J484" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K484">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L484">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M484">
         <v>0</v>
@@ -42868,10 +42868,10 @@
         <v>643</v>
       </c>
       <c r="K485">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L485">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M485">
         <v>0</v>
@@ -42951,10 +42951,10 @@
         <v>251</v>
       </c>
       <c r="K486">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L486">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M486">
         <v>0</v>
@@ -43034,10 +43034,10 @@
         <v>644</v>
       </c>
       <c r="K487">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L487">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M487">
         <v>0</v>
@@ -43117,10 +43117,10 @@
         <v>252</v>
       </c>
       <c r="K488">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L488">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M488">
         <v>0</v>
@@ -43526,10 +43526,10 @@
         <v>266</v>
       </c>
       <c r="I493" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J493" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K493">
         <v>1</v>
@@ -45518,10 +45518,10 @@
         <v>266</v>
       </c>
       <c r="I517" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J517" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K517">
         <v>14</v>
@@ -46431,10 +46431,10 @@
         <v>270</v>
       </c>
       <c r="I528" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J528" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K528">
         <v>1</v>
@@ -46597,10 +46597,10 @@
         <v>266</v>
       </c>
       <c r="I530" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J530" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K530">
         <v>2</v>
@@ -47344,10 +47344,10 @@
         <v>266</v>
       </c>
       <c r="I539" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J539" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K539">
         <v>8</v>
@@ -48008,10 +48008,10 @@
         <v>266</v>
       </c>
       <c r="I547" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J547" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K547">
         <v>16</v>
@@ -48091,10 +48091,10 @@
         <v>266</v>
       </c>
       <c r="I548" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J548" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K548">
         <v>17</v>
@@ -48174,10 +48174,10 @@
         <v>266</v>
       </c>
       <c r="I549" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J549" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K549">
         <v>18</v>
@@ -48921,10 +48921,10 @@
         <v>267</v>
       </c>
       <c r="I558" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J558" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K558">
         <v>1</v>
@@ -49004,10 +49004,10 @@
         <v>268</v>
       </c>
       <c r="I559" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J559" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K559">
         <v>1</v>
